--- a/DBM/sourse_file.xlsx
+++ b/DBM/sourse_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amsadministrator\Desktop\SNET_STAT\STCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZURA KOPADZE\mapping_stca\DBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16984" uniqueCount="5582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17079" uniqueCount="5603">
   <si>
     <t xml:space="preserve">SNET_ID </t>
   </si>
@@ -16779,6 +16779,69 @@
   </si>
   <si>
     <t>0445500E</t>
+  </si>
+  <si>
+    <t>0213</t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>2123</t>
+  </si>
+  <si>
+    <t>0132</t>
+  </si>
+  <si>
+    <t>0112</t>
+  </si>
+  <si>
+    <t>0316</t>
+  </si>
+  <si>
+    <t>0311</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>0474</t>
+  </si>
+  <si>
+    <t>0556</t>
+  </si>
+  <si>
+    <t>0751</t>
+  </si>
+  <si>
+    <t>0505</t>
+  </si>
+  <si>
+    <t>0535</t>
+  </si>
+  <si>
+    <t>0450</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>0143</t>
+  </si>
+  <si>
+    <t>01462</t>
+  </si>
+  <si>
+    <t>0152</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0172</t>
+  </si>
+  <si>
+    <t>0630</t>
   </si>
 </sst>
 </file>
@@ -17013,11 +17076,32 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -17055,32 +17139,11 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -17348,14 +17411,14 @@
     <tableColumn id="6" name="Sector_Tr1" dataDxfId="8"/>
     <tableColumn id="7" name="Latitude_TR1" dataDxfId="7"/>
     <tableColumn id="14" name="Longitude_TR1"/>
-    <tableColumn id="8" name="Altitude_Tr1" dataDxfId="6"/>
-    <tableColumn id="10" name="Callsign/SSR_Tr2" dataDxfId="5"/>
-    <tableColumn id="11" name="Sector_Tr2" dataDxfId="4"/>
-    <tableColumn id="12" name="Latitude_TR2" dataDxfId="3"/>
+    <tableColumn id="8" name="Altitude_Tr1" dataDxfId="1"/>
+    <tableColumn id="10" name="Callsign/SSR_Tr2" dataDxfId="2"/>
+    <tableColumn id="11" name="Sector_Tr2" dataDxfId="0"/>
+    <tableColumn id="12" name="Latitude_TR2" dataDxfId="6"/>
     <tableColumn id="17" name="Longitude_TR2"/>
-    <tableColumn id="13" name="Altitude_Tr2" dataDxfId="2"/>
-    <tableColumn id="15" name="Status" dataDxfId="1"/>
-    <tableColumn id="32" name="N" dataDxfId="0"/>
+    <tableColumn id="13" name="Altitude_Tr2" dataDxfId="5"/>
+    <tableColumn id="15" name="Status" dataDxfId="4"/>
+    <tableColumn id="32" name="N" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17626,8 +17689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1349" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1376" sqref="L1376"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1522" sqref="E1522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -50471,8 +50534,8 @@
       <c r="I614" s="5">
         <v>400</v>
       </c>
-      <c r="J614" s="6">
-        <v>130</v>
+      <c r="J614" s="6" t="s">
+        <v>5106</v>
       </c>
       <c r="K614" s="6" t="s">
         <v>7</v>
@@ -50526,8 +50589,8 @@
       <c r="I615" s="6">
         <v>400</v>
       </c>
-      <c r="J615" s="6">
-        <v>130</v>
+      <c r="J615" s="6" t="s">
+        <v>5106</v>
       </c>
       <c r="K615" s="6" t="s">
         <v>7</v>
@@ -51434,8 +51497,8 @@
       <c r="I632" s="8">
         <v>300</v>
       </c>
-      <c r="J632" s="7">
-        <v>213</v>
+      <c r="J632" s="7" t="s">
+        <v>5582</v>
       </c>
       <c r="K632" s="7" t="s">
         <v>7</v>
@@ -51489,8 +51552,8 @@
       <c r="I633" s="8">
         <v>300</v>
       </c>
-      <c r="J633" s="7">
-        <v>213</v>
+      <c r="J633" s="7" t="s">
+        <v>5582</v>
       </c>
       <c r="K633" s="7" t="s">
         <v>7</v>
@@ -51648,8 +51711,8 @@
       <c r="I636" s="8">
         <v>320</v>
       </c>
-      <c r="J636" s="7">
-        <v>121</v>
+      <c r="J636" s="7" t="s">
+        <v>5583</v>
       </c>
       <c r="K636" s="7" t="s">
         <v>7</v>
@@ -51703,8 +51766,8 @@
       <c r="I637" s="8">
         <v>320</v>
       </c>
-      <c r="J637" s="7">
-        <v>121</v>
+      <c r="J637" s="7" t="s">
+        <v>5583</v>
       </c>
       <c r="K637" s="7" t="s">
         <v>7</v>
@@ -51755,8 +51818,8 @@
       <c r="I638" s="5">
         <v>360</v>
       </c>
-      <c r="J638" s="6">
-        <v>2123</v>
+      <c r="J638" s="6" t="s">
+        <v>5584</v>
       </c>
       <c r="K638" s="6" t="s">
         <v>12</v>
@@ -52076,8 +52139,8 @@
       <c r="I644" s="8">
         <v>320</v>
       </c>
-      <c r="J644" s="7">
-        <v>0</v>
+      <c r="J644" s="7" t="s">
+        <v>824</v>
       </c>
       <c r="K644" s="7" t="s">
         <v>7</v>
@@ -52131,8 +52194,8 @@
       <c r="I645" s="8">
         <v>320</v>
       </c>
-      <c r="J645" s="7">
-        <v>0</v>
+      <c r="J645" s="7" t="s">
+        <v>824</v>
       </c>
       <c r="K645" s="7" t="s">
         <v>7</v>
@@ -53146,8 +53209,8 @@
       <c r="I664" s="8">
         <v>300</v>
       </c>
-      <c r="J664" s="7">
-        <v>45</v>
+      <c r="J664" s="7" t="s">
+        <v>1050</v>
       </c>
       <c r="K664" s="7" t="s">
         <v>7</v>
@@ -53201,8 +53264,8 @@
       <c r="I665" s="8">
         <v>300</v>
       </c>
-      <c r="J665" s="7">
-        <v>45</v>
+      <c r="J665" s="7" t="s">
+        <v>1050</v>
       </c>
       <c r="K665" s="7" t="s">
         <v>7</v>
@@ -53574,8 +53637,8 @@
       <c r="I672" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="J672" s="7">
-        <v>732</v>
+      <c r="J672" s="7" t="s">
+        <v>3741</v>
       </c>
       <c r="K672" s="7" t="s">
         <v>7</v>
@@ -53629,8 +53692,8 @@
       <c r="I673" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="J673" s="7">
-        <v>732</v>
+      <c r="J673" s="7" t="s">
+        <v>3741</v>
       </c>
       <c r="K673" s="7" t="s">
         <v>7</v>
@@ -53681,8 +53744,8 @@
       <c r="I674" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J674" s="6">
-        <v>732</v>
+      <c r="J674" s="6" t="s">
+        <v>3741</v>
       </c>
       <c r="K674" s="6" t="s">
         <v>7</v>
@@ -53736,8 +53799,8 @@
       <c r="I675" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J675" s="6">
-        <v>732</v>
+      <c r="J675" s="6" t="s">
+        <v>3741</v>
       </c>
       <c r="K675" s="6" t="s">
         <v>7</v>
@@ -70801,8 +70864,8 @@
       <c r="I994" s="5">
         <v>400</v>
       </c>
-      <c r="J994" s="6">
-        <v>132</v>
+      <c r="J994" s="6" t="s">
+        <v>5585</v>
       </c>
       <c r="K994" s="6" t="s">
         <v>7</v>
@@ -70856,8 +70919,8 @@
       <c r="I995" s="6">
         <v>400</v>
       </c>
-      <c r="J995" s="6">
-        <v>132</v>
+      <c r="J995" s="6" t="s">
+        <v>5585</v>
       </c>
       <c r="K995" s="6" t="s">
         <v>7</v>
@@ -70908,8 +70971,8 @@
       <c r="I996" s="8">
         <v>340</v>
       </c>
-      <c r="J996" s="7">
-        <v>0</v>
+      <c r="J996" s="7" t="s">
+        <v>824</v>
       </c>
       <c r="K996" s="7" t="s">
         <v>12</v>
@@ -70963,8 +71026,8 @@
       <c r="I997" s="8">
         <v>340</v>
       </c>
-      <c r="J997" s="7">
-        <v>0</v>
+      <c r="J997" s="7" t="s">
+        <v>824</v>
       </c>
       <c r="K997" s="7" t="s">
         <v>12</v>
@@ -71015,8 +71078,8 @@
       <c r="I998" s="5">
         <v>320</v>
       </c>
-      <c r="J998" s="6">
-        <v>112</v>
+      <c r="J998" s="6" t="s">
+        <v>5586</v>
       </c>
       <c r="K998" s="6" t="s">
         <v>7</v>
@@ -71070,8 +71133,8 @@
       <c r="I999" s="6">
         <v>320</v>
       </c>
-      <c r="J999" s="6">
-        <v>112</v>
+      <c r="J999" s="6" t="s">
+        <v>5586</v>
       </c>
       <c r="K999" s="6" t="s">
         <v>7</v>
@@ -71122,8 +71185,8 @@
       <c r="I1000" s="8">
         <v>360</v>
       </c>
-      <c r="J1000" s="7">
-        <v>202</v>
+      <c r="J1000" s="7" t="s">
+        <v>5130</v>
       </c>
       <c r="K1000" s="7" t="s">
         <v>7</v>
@@ -71177,8 +71240,8 @@
       <c r="I1001" s="8">
         <v>360</v>
       </c>
-      <c r="J1001" s="7">
-        <v>202</v>
+      <c r="J1001" s="7" t="s">
+        <v>5130</v>
       </c>
       <c r="K1001" s="7" t="s">
         <v>29</v>
@@ -71642,8 +71705,8 @@
       <c r="D1010" s="5" t="s">
         <v>4142</v>
       </c>
-      <c r="E1010" s="6">
-        <v>630</v>
+      <c r="E1010" s="6" t="s">
+        <v>5602</v>
       </c>
       <c r="F1010" s="6" t="s">
         <v>7</v>
@@ -71697,8 +71760,8 @@
       <c r="D1011" s="6" t="s">
         <v>4142</v>
       </c>
-      <c r="E1011" s="6">
-        <v>630</v>
+      <c r="E1011" s="6" t="s">
+        <v>5602</v>
       </c>
       <c r="F1011" s="6" t="s">
         <v>7</v>
@@ -71856,8 +71919,8 @@
       <c r="D1014" s="5" t="s">
         <v>4158</v>
       </c>
-      <c r="E1014" s="6">
-        <v>630</v>
+      <c r="E1014" s="6" t="s">
+        <v>5602</v>
       </c>
       <c r="F1014" s="6" t="s">
         <v>12</v>
@@ -71911,8 +71974,8 @@
       <c r="D1015" s="6" t="s">
         <v>4158</v>
       </c>
-      <c r="E1015" s="6">
-        <v>630</v>
+      <c r="E1015" s="6" t="s">
+        <v>5602</v>
       </c>
       <c r="F1015" s="6" t="s">
         <v>12</v>
@@ -72192,8 +72255,8 @@
       <c r="I1020" s="8">
         <v>320</v>
       </c>
-      <c r="J1020" s="7">
-        <v>316</v>
+      <c r="J1020" s="7" t="s">
+        <v>5587</v>
       </c>
       <c r="K1020" s="7" t="s">
         <v>7</v>
@@ -72247,8 +72310,8 @@
       <c r="I1021" s="8">
         <v>320</v>
       </c>
-      <c r="J1021" s="7">
-        <v>316</v>
+      <c r="J1021" s="7" t="s">
+        <v>5587</v>
       </c>
       <c r="K1021" s="7" t="s">
         <v>7</v>
@@ -72299,8 +72362,8 @@
       <c r="I1022" s="5">
         <v>320</v>
       </c>
-      <c r="J1022" s="6">
-        <v>316</v>
+      <c r="J1022" s="6" t="s">
+        <v>5587</v>
       </c>
       <c r="K1022" s="6" t="s">
         <v>7</v>
@@ -72354,8 +72417,8 @@
       <c r="I1023" s="6">
         <v>320</v>
       </c>
-      <c r="J1023" s="6">
-        <v>316</v>
+      <c r="J1023" s="6" t="s">
+        <v>5587</v>
       </c>
       <c r="K1023" s="6" t="s">
         <v>7</v>
@@ -72406,8 +72469,8 @@
       <c r="I1024" s="8">
         <v>400</v>
       </c>
-      <c r="J1024" s="7">
-        <v>535</v>
+      <c r="J1024" s="7" t="s">
+        <v>5594</v>
       </c>
       <c r="K1024" s="7" t="s">
         <v>7</v>
@@ -72461,8 +72524,8 @@
       <c r="I1025" s="8">
         <v>400</v>
       </c>
-      <c r="J1025" s="7">
-        <v>535</v>
+      <c r="J1025" s="7" t="s">
+        <v>5594</v>
       </c>
       <c r="K1025" s="7" t="s">
         <v>21</v>
@@ -74118,8 +74181,8 @@
       <c r="I1056" s="8" t="s">
         <v>4272</v>
       </c>
-      <c r="J1056" s="7">
-        <v>450</v>
+      <c r="J1056" s="7" t="s">
+        <v>5595</v>
       </c>
       <c r="K1056" s="7" t="s">
         <v>562</v>
@@ -74173,8 +74236,8 @@
       <c r="I1057" s="8" t="s">
         <v>4277</v>
       </c>
-      <c r="J1057" s="7">
-        <v>450</v>
+      <c r="J1057" s="7" t="s">
+        <v>5595</v>
       </c>
       <c r="K1057" s="7" t="s">
         <v>562</v>
@@ -74653,8 +74716,8 @@
       <c r="I1066" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="J1066" s="6">
-        <v>534</v>
+      <c r="J1066" s="6" t="s">
+        <v>4801</v>
       </c>
       <c r="K1066" s="6" t="s">
         <v>12</v>
@@ -74708,8 +74771,8 @@
       <c r="I1067" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="J1067" s="6">
-        <v>534</v>
+      <c r="J1067" s="6" t="s">
+        <v>4801</v>
       </c>
       <c r="K1067" s="6" t="s">
         <v>13</v>
@@ -92201,8 +92264,8 @@
       <c r="I1394" s="5">
         <v>330</v>
       </c>
-      <c r="J1394" s="6">
-        <v>122</v>
+      <c r="J1394" s="6" t="s">
+        <v>5279</v>
       </c>
       <c r="K1394" s="6" t="s">
         <v>7</v>
@@ -92256,8 +92319,8 @@
       <c r="I1395" s="6">
         <v>330</v>
       </c>
-      <c r="J1395" s="6">
-        <v>122</v>
+      <c r="J1395" s="6" t="s">
+        <v>5279</v>
       </c>
       <c r="K1395" s="6" t="s">
         <v>562</v>
@@ -92736,8 +92799,8 @@
       <c r="I1404" s="8">
         <v>370</v>
       </c>
-      <c r="J1404" s="7">
-        <v>106</v>
+      <c r="J1404" s="7" t="s">
+        <v>5596</v>
       </c>
       <c r="K1404" s="7" t="s">
         <v>7</v>
@@ -92791,8 +92854,8 @@
       <c r="I1405" s="8">
         <v>370</v>
       </c>
-      <c r="J1405" s="7">
-        <v>106</v>
+      <c r="J1405" s="7" t="s">
+        <v>5596</v>
       </c>
       <c r="K1405" s="7" t="s">
         <v>7</v>
@@ -93057,8 +93120,8 @@
       <c r="I1410" s="5">
         <v>380</v>
       </c>
-      <c r="J1410" s="6">
-        <v>143</v>
+      <c r="J1410" s="6" t="s">
+        <v>5597</v>
       </c>
       <c r="K1410" s="6" t="s">
         <v>12</v>
@@ -93112,8 +93175,8 @@
       <c r="I1411" s="6">
         <v>380</v>
       </c>
-      <c r="J1411" s="6">
-        <v>143</v>
+      <c r="J1411" s="6" t="s">
+        <v>5597</v>
       </c>
       <c r="K1411" s="6" t="s">
         <v>12</v>
@@ -93164,8 +93227,8 @@
       <c r="I1412" s="8">
         <v>360</v>
       </c>
-      <c r="J1412" s="7">
-        <v>143</v>
+      <c r="J1412" s="7" t="s">
+        <v>5597</v>
       </c>
       <c r="K1412" s="7" t="s">
         <v>12</v>
@@ -93219,8 +93282,8 @@
       <c r="I1413" s="8">
         <v>360</v>
       </c>
-      <c r="J1413" s="7">
-        <v>143</v>
+      <c r="J1413" s="7" t="s">
+        <v>5597</v>
       </c>
       <c r="K1413" s="7" t="s">
         <v>12</v>
@@ -93271,8 +93334,8 @@
       <c r="I1414" s="5">
         <v>380</v>
       </c>
-      <c r="J1414" s="6">
-        <v>143</v>
+      <c r="J1414" s="6" t="s">
+        <v>5597</v>
       </c>
       <c r="K1414" s="6" t="s">
         <v>12</v>
@@ -93326,8 +93389,8 @@
       <c r="I1415" s="6">
         <v>380</v>
       </c>
-      <c r="J1415" s="6">
-        <v>143</v>
+      <c r="J1415" s="6" t="s">
+        <v>5597</v>
       </c>
       <c r="K1415" s="6" t="s">
         <v>12</v>
@@ -93806,8 +93869,8 @@
       <c r="I1424" s="8">
         <v>390</v>
       </c>
-      <c r="J1424" s="7">
-        <v>1462</v>
+      <c r="J1424" s="7" t="s">
+        <v>5598</v>
       </c>
       <c r="K1424" s="7" t="s">
         <v>7</v>
@@ -93861,8 +93924,8 @@
       <c r="I1425" s="8">
         <v>390</v>
       </c>
-      <c r="J1425" s="7">
-        <v>1462</v>
+      <c r="J1425" s="7" t="s">
+        <v>5598</v>
       </c>
       <c r="K1425" s="7" t="s">
         <v>7</v>
@@ -94234,8 +94297,8 @@
       <c r="I1432" s="8">
         <v>320</v>
       </c>
-      <c r="J1432" s="7">
-        <v>152</v>
+      <c r="J1432" s="7" t="s">
+        <v>5599</v>
       </c>
       <c r="K1432" s="7" t="s">
         <v>7</v>
@@ -94289,8 +94352,8 @@
       <c r="I1433" s="8">
         <v>320</v>
       </c>
-      <c r="J1433" s="7">
-        <v>152</v>
+      <c r="J1433" s="7" t="s">
+        <v>5599</v>
       </c>
       <c r="K1433" s="7" t="s">
         <v>81</v>
@@ -94769,8 +94832,8 @@
       <c r="I1442" s="5">
         <v>370</v>
       </c>
-      <c r="J1442" s="6">
-        <v>172</v>
+      <c r="J1442" s="6" t="s">
+        <v>5601</v>
       </c>
       <c r="K1442" s="6" t="s">
         <v>12</v>
@@ -94824,8 +94887,8 @@
       <c r="I1443" s="6">
         <v>370</v>
       </c>
-      <c r="J1443" s="6">
-        <v>172</v>
+      <c r="J1443" s="6" t="s">
+        <v>5601</v>
       </c>
       <c r="K1443" s="6" t="s">
         <v>12</v>
@@ -94876,8 +94939,8 @@
       <c r="I1444" s="8">
         <v>400</v>
       </c>
-      <c r="J1444" s="7">
-        <v>103</v>
+      <c r="J1444" s="7" t="s">
+        <v>5600</v>
       </c>
       <c r="K1444" s="7" t="s">
         <v>12</v>
@@ -94931,8 +94994,8 @@
       <c r="I1445" s="8">
         <v>400</v>
       </c>
-      <c r="J1445" s="7">
-        <v>103</v>
+      <c r="J1445" s="7" t="s">
+        <v>5600</v>
       </c>
       <c r="K1445" s="7" t="s">
         <v>12</v>
@@ -94983,8 +95046,8 @@
       <c r="I1446" s="5">
         <v>380</v>
       </c>
-      <c r="J1446" s="6">
-        <v>103</v>
+      <c r="J1446" s="6" t="s">
+        <v>5600</v>
       </c>
       <c r="K1446" s="6" t="s">
         <v>12</v>
@@ -95038,8 +95101,8 @@
       <c r="I1447" s="6">
         <v>380</v>
       </c>
-      <c r="J1447" s="6">
-        <v>103</v>
+      <c r="J1447" s="6" t="s">
+        <v>5600</v>
       </c>
       <c r="K1447" s="6" t="s">
         <v>12</v>
@@ -95090,8 +95153,8 @@
       <c r="I1448" s="8">
         <v>400</v>
       </c>
-      <c r="J1448" s="7">
-        <v>103</v>
+      <c r="J1448" s="7" t="s">
+        <v>5600</v>
       </c>
       <c r="K1448" s="7" t="s">
         <v>12</v>
@@ -95145,8 +95208,8 @@
       <c r="I1449" s="8">
         <v>400</v>
       </c>
-      <c r="J1449" s="7">
-        <v>103</v>
+      <c r="J1449" s="7" t="s">
+        <v>5600</v>
       </c>
       <c r="K1449" s="7" t="s">
         <v>12</v>
@@ -95197,8 +95260,8 @@
       <c r="I1450" s="5">
         <v>380</v>
       </c>
-      <c r="J1450" s="6">
-        <v>103</v>
+      <c r="J1450" s="6" t="s">
+        <v>5600</v>
       </c>
       <c r="K1450" s="6" t="s">
         <v>12</v>
@@ -95252,8 +95315,8 @@
       <c r="I1451" s="6">
         <v>380</v>
       </c>
-      <c r="J1451" s="6">
-        <v>103</v>
+      <c r="J1451" s="6" t="s">
+        <v>5600</v>
       </c>
       <c r="K1451" s="6" t="s">
         <v>12</v>
@@ -95304,8 +95367,8 @@
       <c r="I1452" s="8">
         <v>400</v>
       </c>
-      <c r="J1452" s="7">
-        <v>103</v>
+      <c r="J1452" s="7" t="s">
+        <v>5600</v>
       </c>
       <c r="K1452" s="7" t="s">
         <v>12</v>
@@ -95359,8 +95422,8 @@
       <c r="I1453" s="8">
         <v>400</v>
       </c>
-      <c r="J1453" s="7">
-        <v>103</v>
+      <c r="J1453" s="7" t="s">
+        <v>5600</v>
       </c>
       <c r="K1453" s="7" t="s">
         <v>12</v>
@@ -95396,8 +95459,8 @@
       <c r="D1454" s="5" t="s">
         <v>5429</v>
       </c>
-      <c r="E1454" s="6">
-        <v>103</v>
+      <c r="E1454" s="6" t="s">
+        <v>5600</v>
       </c>
       <c r="F1454" s="6" t="s">
         <v>12</v>
@@ -95451,8 +95514,8 @@
       <c r="D1455" s="6" t="s">
         <v>5429</v>
       </c>
-      <c r="E1455" s="6">
-        <v>103</v>
+      <c r="E1455" s="6" t="s">
+        <v>5600</v>
       </c>
       <c r="F1455" s="6" t="s">
         <v>12</v>
@@ -95518,8 +95581,8 @@
       <c r="I1456" s="8">
         <v>400</v>
       </c>
-      <c r="J1456" s="7">
-        <v>103</v>
+      <c r="J1456" s="7" t="s">
+        <v>5600</v>
       </c>
       <c r="K1456" s="7" t="s">
         <v>12</v>
@@ -95573,8 +95636,8 @@
       <c r="I1457" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J1457" s="7">
-        <v>103</v>
+      <c r="J1457" s="7" t="s">
+        <v>5600</v>
       </c>
       <c r="K1457" s="7" t="s">
         <v>12</v>
@@ -95732,8 +95795,8 @@
       <c r="I1460" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J1460" s="7">
-        <v>103</v>
+      <c r="J1460" s="7" t="s">
+        <v>5600</v>
       </c>
       <c r="K1460" s="7" t="s">
         <v>12</v>
@@ -95787,8 +95850,8 @@
       <c r="I1461" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J1461" s="7">
-        <v>103</v>
+      <c r="J1461" s="7" t="s">
+        <v>5600</v>
       </c>
       <c r="K1461" s="7" t="s">
         <v>12</v>
@@ -96160,8 +96223,8 @@
       <c r="I1468" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J1468" s="7">
-        <v>505</v>
+      <c r="J1468" s="7" t="s">
+        <v>5593</v>
       </c>
       <c r="K1468" s="7" t="s">
         <v>7</v>
@@ -96215,8 +96278,8 @@
       <c r="I1469" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J1469" s="7">
-        <v>505</v>
+      <c r="J1469" s="7" t="s">
+        <v>5593</v>
       </c>
       <c r="K1469" s="7" t="s">
         <v>7</v>
@@ -96374,8 +96437,8 @@
       <c r="I1472" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J1472" s="7">
-        <v>751</v>
+      <c r="J1472" s="7" t="s">
+        <v>5592</v>
       </c>
       <c r="K1472" s="7" t="s">
         <v>7</v>
@@ -96429,8 +96492,8 @@
       <c r="I1473" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J1473" s="7">
-        <v>751</v>
+      <c r="J1473" s="7" t="s">
+        <v>5592</v>
       </c>
       <c r="K1473" s="7" t="s">
         <v>7</v>
@@ -96909,8 +96972,8 @@
       <c r="I1482" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J1482" s="6">
-        <v>556</v>
+      <c r="J1482" s="6" t="s">
+        <v>5591</v>
       </c>
       <c r="K1482" s="6" t="s">
         <v>7</v>
@@ -96964,8 +97027,8 @@
       <c r="I1483" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J1483" s="6">
-        <v>556</v>
+      <c r="J1483" s="6" t="s">
+        <v>5591</v>
       </c>
       <c r="K1483" s="6" t="s">
         <v>7</v>
@@ -97016,8 +97079,8 @@
       <c r="I1484" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J1484" s="7">
-        <v>474</v>
+      <c r="J1484" s="7" t="s">
+        <v>5590</v>
       </c>
       <c r="K1484" s="7" t="s">
         <v>7</v>
@@ -97071,8 +97134,8 @@
       <c r="I1485" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J1485" s="7">
-        <v>474</v>
+      <c r="J1485" s="7" t="s">
+        <v>5590</v>
       </c>
       <c r="K1485" s="7" t="s">
         <v>7</v>
@@ -97123,8 +97186,8 @@
       <c r="I1486" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J1486" s="6">
-        <v>474</v>
+      <c r="J1486" s="6" t="s">
+        <v>5590</v>
       </c>
       <c r="K1486" s="6" t="s">
         <v>7</v>
@@ -97178,8 +97241,8 @@
       <c r="I1487" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J1487" s="6">
-        <v>474</v>
+      <c r="J1487" s="6" t="s">
+        <v>5590</v>
       </c>
       <c r="K1487" s="6" t="s">
         <v>7</v>
@@ -97658,8 +97721,8 @@
       <c r="I1496" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J1496" s="7">
-        <v>402</v>
+      <c r="J1496" s="7" t="s">
+        <v>5589</v>
       </c>
       <c r="K1496" s="7" t="s">
         <v>12</v>
@@ -97713,8 +97776,8 @@
       <c r="I1497" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J1497" s="7">
-        <v>402</v>
+      <c r="J1497" s="7" t="s">
+        <v>5589</v>
       </c>
       <c r="K1497" s="7" t="s">
         <v>12</v>
@@ -97765,8 +97828,8 @@
       <c r="I1498" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J1498" s="6">
-        <v>402</v>
+      <c r="J1498" s="6" t="s">
+        <v>5589</v>
       </c>
       <c r="K1498" s="6" t="s">
         <v>12</v>
@@ -97820,8 +97883,8 @@
       <c r="I1499" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J1499" s="6">
-        <v>402</v>
+      <c r="J1499" s="6" t="s">
+        <v>5589</v>
       </c>
       <c r="K1499" s="6" t="s">
         <v>12</v>
@@ -97979,8 +98042,8 @@
       <c r="I1502" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J1502" s="6">
-        <v>311</v>
+      <c r="J1502" s="6" t="s">
+        <v>5588</v>
       </c>
       <c r="K1502" s="6" t="s">
         <v>7</v>
@@ -98034,8 +98097,8 @@
       <c r="I1503" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J1503" s="6">
-        <v>311</v>
+      <c r="J1503" s="6" t="s">
+        <v>5588</v>
       </c>
       <c r="K1503" s="6" t="s">
         <v>7</v>
@@ -98086,8 +98149,8 @@
       <c r="I1504" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J1504" s="7">
-        <v>311</v>
+      <c r="J1504" s="7" t="s">
+        <v>5588</v>
       </c>
       <c r="K1504" s="7" t="s">
         <v>7</v>
@@ -98141,8 +98204,8 @@
       <c r="I1505" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J1505" s="7">
-        <v>311</v>
+      <c r="J1505" s="7" t="s">
+        <v>5588</v>
       </c>
       <c r="K1505" s="7" t="s">
         <v>7</v>
@@ -98193,8 +98256,8 @@
       <c r="I1506" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J1506" s="6">
-        <v>311</v>
+      <c r="J1506" s="6" t="s">
+        <v>5588</v>
       </c>
       <c r="K1506" s="6" t="s">
         <v>7</v>
@@ -98248,8 +98311,8 @@
       <c r="I1507" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J1507" s="6">
-        <v>311</v>
+      <c r="J1507" s="6" t="s">
+        <v>5588</v>
       </c>
       <c r="K1507" s="6" t="s">
         <v>7</v>
@@ -98300,8 +98363,8 @@
       <c r="I1508" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J1508" s="7">
-        <v>311</v>
+      <c r="J1508" s="7" t="s">
+        <v>5588</v>
       </c>
       <c r="K1508" s="7" t="s">
         <v>7</v>
@@ -98355,8 +98418,8 @@
       <c r="I1509" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J1509" s="7">
-        <v>311</v>
+      <c r="J1509" s="7" t="s">
+        <v>5588</v>
       </c>
       <c r="K1509" s="7" t="s">
         <v>7</v>
@@ -98407,8 +98470,8 @@
       <c r="I1510" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J1510" s="6">
-        <v>130</v>
+      <c r="J1510" s="6" t="s">
+        <v>5106</v>
       </c>
       <c r="K1510" s="6" t="s">
         <v>7</v>
@@ -98462,8 +98525,8 @@
       <c r="I1511" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1511" s="6">
-        <v>130</v>
+      <c r="J1511" s="6" t="s">
+        <v>5106</v>
       </c>
       <c r="K1511" s="6" t="s">
         <v>29</v>
@@ -98514,8 +98577,8 @@
       <c r="I1512" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="J1512" s="7">
-        <v>56</v>
+      <c r="J1512" s="7" t="s">
+        <v>3995</v>
       </c>
       <c r="K1512" s="7" t="s">
         <v>12</v>
@@ -98569,8 +98632,8 @@
       <c r="I1513" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="J1513" s="7">
-        <v>56</v>
+      <c r="J1513" s="7" t="s">
+        <v>3995</v>
       </c>
       <c r="K1513" s="7" t="s">
         <v>12</v>
@@ -98702,527 +98765,218 @@
     </row>
   </sheetData>
   <mergeCells count="757">
-    <mergeCell ref="Q1084:Q1085"/>
-    <mergeCell ref="Q1086:Q1087"/>
-    <mergeCell ref="Q1088:Q1089"/>
-    <mergeCell ref="Q1090:Q1091"/>
-    <mergeCell ref="Q1066:Q1067"/>
-    <mergeCell ref="Q1068:Q1069"/>
-    <mergeCell ref="Q1070:Q1071"/>
-    <mergeCell ref="Q1072:Q1073"/>
-    <mergeCell ref="Q1074:Q1075"/>
-    <mergeCell ref="Q1076:Q1077"/>
-    <mergeCell ref="Q1078:Q1079"/>
-    <mergeCell ref="Q1080:Q1081"/>
-    <mergeCell ref="Q1082:Q1083"/>
-    <mergeCell ref="Q1048:Q1049"/>
-    <mergeCell ref="Q1050:Q1051"/>
-    <mergeCell ref="Q1052:Q1053"/>
-    <mergeCell ref="Q1054:Q1055"/>
-    <mergeCell ref="Q1056:Q1057"/>
-    <mergeCell ref="Q1058:Q1059"/>
-    <mergeCell ref="Q1060:Q1061"/>
-    <mergeCell ref="Q1062:Q1063"/>
-    <mergeCell ref="Q1064:Q1065"/>
-    <mergeCell ref="Q1030:Q1031"/>
-    <mergeCell ref="Q1032:Q1033"/>
-    <mergeCell ref="Q1034:Q1035"/>
-    <mergeCell ref="Q1036:Q1037"/>
-    <mergeCell ref="Q1038:Q1039"/>
-    <mergeCell ref="Q1040:Q1041"/>
-    <mergeCell ref="Q1042:Q1043"/>
-    <mergeCell ref="Q1044:Q1045"/>
-    <mergeCell ref="Q1046:Q1047"/>
-    <mergeCell ref="Q1012:Q1013"/>
-    <mergeCell ref="Q1014:Q1015"/>
-    <mergeCell ref="Q1016:Q1017"/>
-    <mergeCell ref="Q1018:Q1019"/>
-    <mergeCell ref="Q1020:Q1021"/>
-    <mergeCell ref="Q1022:Q1023"/>
-    <mergeCell ref="Q1024:Q1025"/>
-    <mergeCell ref="Q1026:Q1027"/>
-    <mergeCell ref="Q1028:Q1029"/>
-    <mergeCell ref="Q994:Q995"/>
-    <mergeCell ref="Q996:Q997"/>
-    <mergeCell ref="Q998:Q999"/>
-    <mergeCell ref="Q1000:Q1001"/>
-    <mergeCell ref="Q1002:Q1003"/>
-    <mergeCell ref="Q1004:Q1005"/>
-    <mergeCell ref="Q1006:Q1007"/>
-    <mergeCell ref="Q1008:Q1009"/>
-    <mergeCell ref="Q1010:Q1011"/>
-    <mergeCell ref="Q976:Q977"/>
-    <mergeCell ref="Q978:Q979"/>
-    <mergeCell ref="Q980:Q981"/>
-    <mergeCell ref="Q982:Q983"/>
-    <mergeCell ref="Q984:Q985"/>
-    <mergeCell ref="Q986:Q987"/>
-    <mergeCell ref="Q988:Q989"/>
-    <mergeCell ref="Q990:Q991"/>
-    <mergeCell ref="Q992:Q993"/>
-    <mergeCell ref="Q958:Q959"/>
-    <mergeCell ref="Q960:Q961"/>
-    <mergeCell ref="Q962:Q963"/>
-    <mergeCell ref="Q964:Q965"/>
-    <mergeCell ref="Q966:Q967"/>
-    <mergeCell ref="Q968:Q969"/>
-    <mergeCell ref="Q970:Q971"/>
-    <mergeCell ref="Q972:Q973"/>
-    <mergeCell ref="Q974:Q975"/>
-    <mergeCell ref="Q940:Q941"/>
-    <mergeCell ref="Q942:Q943"/>
-    <mergeCell ref="Q944:Q945"/>
-    <mergeCell ref="Q946:Q947"/>
-    <mergeCell ref="Q948:Q949"/>
-    <mergeCell ref="Q950:Q951"/>
-    <mergeCell ref="Q952:Q953"/>
-    <mergeCell ref="Q954:Q955"/>
-    <mergeCell ref="Q956:Q957"/>
-    <mergeCell ref="Q922:Q923"/>
-    <mergeCell ref="Q924:Q925"/>
-    <mergeCell ref="Q926:Q927"/>
-    <mergeCell ref="Q928:Q929"/>
-    <mergeCell ref="Q930:Q931"/>
-    <mergeCell ref="Q932:Q933"/>
-    <mergeCell ref="Q934:Q935"/>
-    <mergeCell ref="Q936:Q937"/>
-    <mergeCell ref="Q938:Q939"/>
-    <mergeCell ref="Q904:Q905"/>
-    <mergeCell ref="Q906:Q907"/>
-    <mergeCell ref="Q908:Q909"/>
-    <mergeCell ref="Q910:Q911"/>
-    <mergeCell ref="Q912:Q913"/>
-    <mergeCell ref="Q914:Q915"/>
-    <mergeCell ref="Q916:Q917"/>
-    <mergeCell ref="Q918:Q919"/>
-    <mergeCell ref="Q920:Q921"/>
-    <mergeCell ref="Q886:Q887"/>
-    <mergeCell ref="Q888:Q889"/>
-    <mergeCell ref="Q890:Q891"/>
-    <mergeCell ref="Q892:Q893"/>
-    <mergeCell ref="Q894:Q895"/>
-    <mergeCell ref="Q896:Q897"/>
-    <mergeCell ref="Q898:Q899"/>
-    <mergeCell ref="Q900:Q901"/>
-    <mergeCell ref="Q902:Q903"/>
-    <mergeCell ref="Q868:Q869"/>
-    <mergeCell ref="Q870:Q871"/>
-    <mergeCell ref="Q872:Q873"/>
-    <mergeCell ref="Q874:Q875"/>
-    <mergeCell ref="Q876:Q877"/>
-    <mergeCell ref="Q878:Q879"/>
-    <mergeCell ref="Q880:Q881"/>
-    <mergeCell ref="Q882:Q883"/>
-    <mergeCell ref="Q884:Q885"/>
-    <mergeCell ref="Q850:Q851"/>
-    <mergeCell ref="Q852:Q853"/>
-    <mergeCell ref="Q854:Q855"/>
-    <mergeCell ref="Q856:Q857"/>
-    <mergeCell ref="Q858:Q859"/>
-    <mergeCell ref="Q860:Q861"/>
-    <mergeCell ref="Q862:Q863"/>
-    <mergeCell ref="Q864:Q865"/>
-    <mergeCell ref="Q866:Q867"/>
-    <mergeCell ref="Q832:Q833"/>
-    <mergeCell ref="Q834:Q835"/>
-    <mergeCell ref="Q836:Q837"/>
-    <mergeCell ref="Q838:Q839"/>
-    <mergeCell ref="Q840:Q841"/>
-    <mergeCell ref="Q842:Q843"/>
-    <mergeCell ref="Q844:Q845"/>
-    <mergeCell ref="Q846:Q847"/>
-    <mergeCell ref="Q848:Q849"/>
-    <mergeCell ref="Q814:Q815"/>
-    <mergeCell ref="Q816:Q817"/>
-    <mergeCell ref="Q818:Q819"/>
-    <mergeCell ref="Q820:Q821"/>
-    <mergeCell ref="Q822:Q823"/>
-    <mergeCell ref="Q824:Q825"/>
-    <mergeCell ref="Q826:Q827"/>
-    <mergeCell ref="Q828:Q829"/>
-    <mergeCell ref="Q830:Q831"/>
-    <mergeCell ref="Q796:Q797"/>
-    <mergeCell ref="Q798:Q799"/>
-    <mergeCell ref="Q800:Q801"/>
-    <mergeCell ref="Q802:Q803"/>
-    <mergeCell ref="Q804:Q805"/>
-    <mergeCell ref="Q806:Q807"/>
-    <mergeCell ref="Q808:Q809"/>
-    <mergeCell ref="Q810:Q811"/>
-    <mergeCell ref="Q812:Q813"/>
-    <mergeCell ref="Q778:Q779"/>
-    <mergeCell ref="Q780:Q781"/>
-    <mergeCell ref="Q782:Q783"/>
-    <mergeCell ref="Q784:Q785"/>
-    <mergeCell ref="Q786:Q787"/>
-    <mergeCell ref="Q788:Q789"/>
-    <mergeCell ref="Q790:Q791"/>
-    <mergeCell ref="Q792:Q793"/>
-    <mergeCell ref="Q794:Q795"/>
-    <mergeCell ref="Q760:Q761"/>
-    <mergeCell ref="Q762:Q763"/>
-    <mergeCell ref="Q764:Q765"/>
-    <mergeCell ref="Q766:Q767"/>
-    <mergeCell ref="Q768:Q769"/>
-    <mergeCell ref="Q770:Q771"/>
-    <mergeCell ref="Q772:Q773"/>
-    <mergeCell ref="Q774:Q775"/>
-    <mergeCell ref="Q776:Q777"/>
-    <mergeCell ref="Q742:Q743"/>
-    <mergeCell ref="Q744:Q745"/>
-    <mergeCell ref="Q746:Q747"/>
-    <mergeCell ref="Q748:Q749"/>
-    <mergeCell ref="Q750:Q751"/>
-    <mergeCell ref="Q752:Q753"/>
-    <mergeCell ref="Q754:Q755"/>
-    <mergeCell ref="Q756:Q757"/>
-    <mergeCell ref="Q758:Q759"/>
-    <mergeCell ref="Q724:Q725"/>
-    <mergeCell ref="Q726:Q727"/>
-    <mergeCell ref="Q728:Q729"/>
-    <mergeCell ref="Q730:Q731"/>
-    <mergeCell ref="Q732:Q733"/>
-    <mergeCell ref="Q734:Q735"/>
-    <mergeCell ref="Q736:Q737"/>
-    <mergeCell ref="Q738:Q739"/>
-    <mergeCell ref="Q740:Q741"/>
-    <mergeCell ref="Q706:Q707"/>
-    <mergeCell ref="Q708:Q709"/>
-    <mergeCell ref="Q710:Q711"/>
-    <mergeCell ref="Q712:Q713"/>
-    <mergeCell ref="Q714:Q715"/>
-    <mergeCell ref="Q716:Q717"/>
-    <mergeCell ref="Q718:Q719"/>
-    <mergeCell ref="Q720:Q721"/>
-    <mergeCell ref="Q722:Q723"/>
-    <mergeCell ref="Q688:Q689"/>
-    <mergeCell ref="Q690:Q691"/>
-    <mergeCell ref="Q692:Q693"/>
-    <mergeCell ref="Q694:Q695"/>
-    <mergeCell ref="Q696:Q697"/>
-    <mergeCell ref="Q698:Q699"/>
-    <mergeCell ref="Q700:Q701"/>
-    <mergeCell ref="Q702:Q703"/>
-    <mergeCell ref="Q704:Q705"/>
-    <mergeCell ref="Q672:Q673"/>
-    <mergeCell ref="Q674:Q675"/>
-    <mergeCell ref="Q676:Q677"/>
-    <mergeCell ref="Q678:Q679"/>
-    <mergeCell ref="Q680:Q681"/>
-    <mergeCell ref="Q682:Q683"/>
-    <mergeCell ref="Q684:Q685"/>
-    <mergeCell ref="Q686:Q687"/>
-    <mergeCell ref="Q654:Q655"/>
-    <mergeCell ref="Q656:Q657"/>
-    <mergeCell ref="Q658:Q659"/>
-    <mergeCell ref="Q660:Q661"/>
-    <mergeCell ref="Q662:Q663"/>
-    <mergeCell ref="Q664:Q665"/>
-    <mergeCell ref="Q666:Q667"/>
-    <mergeCell ref="Q668:Q669"/>
-    <mergeCell ref="Q670:Q671"/>
-    <mergeCell ref="Q636:Q637"/>
-    <mergeCell ref="Q638:Q639"/>
-    <mergeCell ref="Q640:Q641"/>
-    <mergeCell ref="Q642:Q643"/>
-    <mergeCell ref="Q644:Q645"/>
-    <mergeCell ref="Q646:Q647"/>
-    <mergeCell ref="Q648:Q649"/>
-    <mergeCell ref="Q650:Q651"/>
-    <mergeCell ref="Q652:Q653"/>
-    <mergeCell ref="Q618:Q619"/>
-    <mergeCell ref="Q620:Q621"/>
-    <mergeCell ref="Q622:Q623"/>
-    <mergeCell ref="Q624:Q625"/>
-    <mergeCell ref="Q626:Q627"/>
-    <mergeCell ref="Q628:Q629"/>
-    <mergeCell ref="Q630:Q631"/>
-    <mergeCell ref="Q632:Q633"/>
-    <mergeCell ref="Q634:Q635"/>
-    <mergeCell ref="Q600:Q601"/>
-    <mergeCell ref="Q602:Q603"/>
-    <mergeCell ref="Q604:Q605"/>
-    <mergeCell ref="Q606:Q607"/>
-    <mergeCell ref="Q608:Q609"/>
-    <mergeCell ref="Q610:Q611"/>
-    <mergeCell ref="Q612:Q613"/>
-    <mergeCell ref="Q614:Q615"/>
-    <mergeCell ref="Q616:Q617"/>
-    <mergeCell ref="Q582:Q583"/>
-    <mergeCell ref="Q584:Q585"/>
-    <mergeCell ref="Q586:Q587"/>
-    <mergeCell ref="Q588:Q589"/>
-    <mergeCell ref="Q590:Q591"/>
-    <mergeCell ref="Q592:Q593"/>
-    <mergeCell ref="Q594:Q595"/>
-    <mergeCell ref="Q596:Q597"/>
-    <mergeCell ref="Q598:Q599"/>
-    <mergeCell ref="Q564:Q565"/>
-    <mergeCell ref="Q566:Q567"/>
-    <mergeCell ref="Q568:Q569"/>
-    <mergeCell ref="Q570:Q571"/>
-    <mergeCell ref="Q572:Q573"/>
-    <mergeCell ref="Q574:Q575"/>
-    <mergeCell ref="Q576:Q577"/>
-    <mergeCell ref="Q578:Q579"/>
-    <mergeCell ref="Q580:Q581"/>
-    <mergeCell ref="Q546:Q547"/>
-    <mergeCell ref="Q548:Q549"/>
-    <mergeCell ref="Q550:Q551"/>
-    <mergeCell ref="Q552:Q553"/>
-    <mergeCell ref="Q554:Q555"/>
-    <mergeCell ref="Q556:Q557"/>
-    <mergeCell ref="Q558:Q559"/>
-    <mergeCell ref="Q560:Q561"/>
-    <mergeCell ref="Q562:Q563"/>
-    <mergeCell ref="Q528:Q529"/>
-    <mergeCell ref="Q530:Q531"/>
-    <mergeCell ref="Q532:Q533"/>
-    <mergeCell ref="Q534:Q535"/>
-    <mergeCell ref="Q536:Q537"/>
-    <mergeCell ref="Q538:Q539"/>
-    <mergeCell ref="Q540:Q541"/>
-    <mergeCell ref="Q542:Q543"/>
-    <mergeCell ref="Q544:Q545"/>
-    <mergeCell ref="Q510:Q511"/>
-    <mergeCell ref="Q512:Q513"/>
-    <mergeCell ref="Q514:Q515"/>
-    <mergeCell ref="Q516:Q517"/>
-    <mergeCell ref="Q518:Q519"/>
-    <mergeCell ref="Q520:Q521"/>
-    <mergeCell ref="Q522:Q523"/>
-    <mergeCell ref="Q524:Q525"/>
-    <mergeCell ref="Q526:Q527"/>
-    <mergeCell ref="Q492:Q493"/>
-    <mergeCell ref="Q494:Q495"/>
-    <mergeCell ref="Q496:Q497"/>
-    <mergeCell ref="Q498:Q499"/>
-    <mergeCell ref="Q500:Q501"/>
-    <mergeCell ref="Q502:Q503"/>
-    <mergeCell ref="Q504:Q505"/>
-    <mergeCell ref="Q506:Q507"/>
-    <mergeCell ref="Q508:Q509"/>
-    <mergeCell ref="Q474:Q475"/>
-    <mergeCell ref="Q476:Q477"/>
-    <mergeCell ref="Q478:Q479"/>
-    <mergeCell ref="Q480:Q481"/>
-    <mergeCell ref="Q482:Q483"/>
-    <mergeCell ref="Q484:Q485"/>
-    <mergeCell ref="Q486:Q487"/>
-    <mergeCell ref="Q488:Q489"/>
-    <mergeCell ref="Q490:Q491"/>
-    <mergeCell ref="Q456:Q457"/>
-    <mergeCell ref="Q458:Q459"/>
-    <mergeCell ref="Q460:Q461"/>
-    <mergeCell ref="Q462:Q463"/>
-    <mergeCell ref="Q464:Q465"/>
-    <mergeCell ref="Q466:Q467"/>
-    <mergeCell ref="Q468:Q469"/>
-    <mergeCell ref="Q470:Q471"/>
-    <mergeCell ref="Q472:Q473"/>
-    <mergeCell ref="Q438:Q439"/>
-    <mergeCell ref="Q440:Q441"/>
-    <mergeCell ref="Q442:Q443"/>
-    <mergeCell ref="Q444:Q445"/>
-    <mergeCell ref="Q446:Q447"/>
-    <mergeCell ref="Q448:Q449"/>
-    <mergeCell ref="Q450:Q451"/>
-    <mergeCell ref="Q452:Q453"/>
-    <mergeCell ref="Q454:Q455"/>
-    <mergeCell ref="Q420:Q421"/>
-    <mergeCell ref="Q422:Q423"/>
-    <mergeCell ref="Q424:Q425"/>
-    <mergeCell ref="Q426:Q427"/>
-    <mergeCell ref="Q428:Q429"/>
-    <mergeCell ref="Q430:Q431"/>
-    <mergeCell ref="Q432:Q433"/>
-    <mergeCell ref="Q434:Q435"/>
-    <mergeCell ref="Q436:Q437"/>
-    <mergeCell ref="Q402:Q403"/>
-    <mergeCell ref="Q404:Q405"/>
-    <mergeCell ref="Q406:Q407"/>
-    <mergeCell ref="Q408:Q409"/>
-    <mergeCell ref="Q410:Q411"/>
-    <mergeCell ref="Q412:Q413"/>
-    <mergeCell ref="Q414:Q415"/>
-    <mergeCell ref="Q416:Q417"/>
-    <mergeCell ref="Q418:Q419"/>
-    <mergeCell ref="Q384:Q385"/>
-    <mergeCell ref="Q386:Q387"/>
-    <mergeCell ref="Q388:Q389"/>
-    <mergeCell ref="Q390:Q391"/>
-    <mergeCell ref="Q392:Q393"/>
-    <mergeCell ref="Q394:Q395"/>
-    <mergeCell ref="Q396:Q397"/>
-    <mergeCell ref="Q398:Q399"/>
-    <mergeCell ref="Q400:Q401"/>
-    <mergeCell ref="Q378:Q379"/>
-    <mergeCell ref="Q380:Q381"/>
-    <mergeCell ref="Q382:Q383"/>
-    <mergeCell ref="Q360:Q361"/>
-    <mergeCell ref="Q362:Q363"/>
-    <mergeCell ref="Q364:Q365"/>
-    <mergeCell ref="Q366:Q367"/>
-    <mergeCell ref="Q368:Q369"/>
-    <mergeCell ref="Q370:Q371"/>
-    <mergeCell ref="Q372:Q373"/>
-    <mergeCell ref="Q374:Q375"/>
-    <mergeCell ref="Q376:Q377"/>
-    <mergeCell ref="Q342:Q343"/>
-    <mergeCell ref="Q344:Q345"/>
-    <mergeCell ref="Q346:Q347"/>
-    <mergeCell ref="Q348:Q349"/>
-    <mergeCell ref="Q350:Q351"/>
-    <mergeCell ref="Q352:Q353"/>
-    <mergeCell ref="Q354:Q355"/>
-    <mergeCell ref="Q356:Q357"/>
-    <mergeCell ref="Q358:Q359"/>
-    <mergeCell ref="Q324:Q325"/>
-    <mergeCell ref="Q326:Q327"/>
-    <mergeCell ref="Q328:Q329"/>
-    <mergeCell ref="Q330:Q331"/>
-    <mergeCell ref="Q332:Q333"/>
-    <mergeCell ref="Q334:Q335"/>
-    <mergeCell ref="Q336:Q337"/>
-    <mergeCell ref="Q338:Q339"/>
-    <mergeCell ref="Q340:Q341"/>
-    <mergeCell ref="Q306:Q307"/>
-    <mergeCell ref="Q308:Q309"/>
-    <mergeCell ref="Q310:Q311"/>
-    <mergeCell ref="Q312:Q313"/>
-    <mergeCell ref="Q314:Q315"/>
-    <mergeCell ref="Q316:Q317"/>
-    <mergeCell ref="Q318:Q319"/>
-    <mergeCell ref="Q320:Q321"/>
-    <mergeCell ref="Q322:Q323"/>
-    <mergeCell ref="Q296:Q297"/>
-    <mergeCell ref="Q298:Q299"/>
-    <mergeCell ref="Q300:Q301"/>
-    <mergeCell ref="Q302:Q303"/>
-    <mergeCell ref="Q304:Q305"/>
-    <mergeCell ref="Q280:Q281"/>
-    <mergeCell ref="Q282:Q283"/>
-    <mergeCell ref="Q284:Q285"/>
-    <mergeCell ref="Q286:Q287"/>
-    <mergeCell ref="Q288:Q289"/>
-    <mergeCell ref="Q290:Q291"/>
-    <mergeCell ref="Q292:Q293"/>
-    <mergeCell ref="Q294:Q295"/>
-    <mergeCell ref="Q262:Q263"/>
-    <mergeCell ref="Q264:Q265"/>
-    <mergeCell ref="Q266:Q267"/>
-    <mergeCell ref="Q268:Q269"/>
-    <mergeCell ref="Q270:Q271"/>
-    <mergeCell ref="Q272:Q273"/>
-    <mergeCell ref="Q274:Q275"/>
-    <mergeCell ref="Q276:Q277"/>
-    <mergeCell ref="Q278:Q279"/>
-    <mergeCell ref="Q244:Q245"/>
-    <mergeCell ref="Q246:Q247"/>
-    <mergeCell ref="Q248:Q249"/>
-    <mergeCell ref="Q250:Q251"/>
-    <mergeCell ref="Q252:Q253"/>
-    <mergeCell ref="Q254:Q255"/>
-    <mergeCell ref="Q256:Q257"/>
-    <mergeCell ref="Q258:Q259"/>
-    <mergeCell ref="Q260:Q261"/>
-    <mergeCell ref="Q226:Q227"/>
-    <mergeCell ref="Q228:Q229"/>
-    <mergeCell ref="Q230:Q231"/>
-    <mergeCell ref="Q232:Q233"/>
-    <mergeCell ref="Q234:Q235"/>
-    <mergeCell ref="Q236:Q237"/>
-    <mergeCell ref="Q238:Q239"/>
-    <mergeCell ref="Q240:Q241"/>
-    <mergeCell ref="Q242:Q243"/>
-    <mergeCell ref="Q208:Q209"/>
-    <mergeCell ref="Q210:Q211"/>
-    <mergeCell ref="Q212:Q213"/>
-    <mergeCell ref="Q214:Q215"/>
-    <mergeCell ref="Q216:Q217"/>
-    <mergeCell ref="Q218:Q219"/>
-    <mergeCell ref="Q220:Q221"/>
-    <mergeCell ref="Q222:Q223"/>
-    <mergeCell ref="Q224:Q225"/>
-    <mergeCell ref="Q164:Q165"/>
-    <mergeCell ref="Q166:Q167"/>
-    <mergeCell ref="Q168:Q169"/>
-    <mergeCell ref="Q170:Q171"/>
-    <mergeCell ref="Q172:Q173"/>
-    <mergeCell ref="Q174:Q175"/>
-    <mergeCell ref="Q176:Q177"/>
-    <mergeCell ref="Q188:Q189"/>
-    <mergeCell ref="Q190:Q191"/>
-    <mergeCell ref="Q178:Q179"/>
-    <mergeCell ref="Q180:Q181"/>
-    <mergeCell ref="Q182:Q183"/>
-    <mergeCell ref="Q184:Q185"/>
-    <mergeCell ref="Q186:Q187"/>
-    <mergeCell ref="Q156:Q157"/>
-    <mergeCell ref="Q142:Q143"/>
-    <mergeCell ref="Q144:Q145"/>
-    <mergeCell ref="Q146:Q147"/>
-    <mergeCell ref="Q148:Q149"/>
-    <mergeCell ref="Q150:Q151"/>
-    <mergeCell ref="Q158:Q159"/>
-    <mergeCell ref="Q160:Q161"/>
-    <mergeCell ref="Q162:Q163"/>
-    <mergeCell ref="Q128:Q129"/>
-    <mergeCell ref="Q130:Q131"/>
-    <mergeCell ref="Q132:Q133"/>
-    <mergeCell ref="Q134:Q135"/>
-    <mergeCell ref="Q136:Q137"/>
-    <mergeCell ref="Q138:Q139"/>
-    <mergeCell ref="Q140:Q141"/>
-    <mergeCell ref="Q152:Q153"/>
-    <mergeCell ref="Q154:Q155"/>
-    <mergeCell ref="Q110:Q111"/>
-    <mergeCell ref="Q112:Q113"/>
-    <mergeCell ref="Q114:Q115"/>
-    <mergeCell ref="Q116:Q117"/>
-    <mergeCell ref="Q118:Q119"/>
-    <mergeCell ref="Q120:Q121"/>
-    <mergeCell ref="Q122:Q123"/>
-    <mergeCell ref="Q124:Q125"/>
-    <mergeCell ref="Q126:Q127"/>
-    <mergeCell ref="Q92:Q93"/>
-    <mergeCell ref="Q94:Q95"/>
-    <mergeCell ref="Q96:Q97"/>
-    <mergeCell ref="Q98:Q99"/>
-    <mergeCell ref="Q100:Q101"/>
-    <mergeCell ref="Q102:Q103"/>
-    <mergeCell ref="Q104:Q105"/>
-    <mergeCell ref="Q106:Q107"/>
-    <mergeCell ref="Q108:Q109"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="Q74:Q75"/>
-    <mergeCell ref="Q76:Q77"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="Q80:Q81"/>
-    <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="Q86:Q87"/>
-    <mergeCell ref="Q88:Q89"/>
-    <mergeCell ref="Q90:Q91"/>
-    <mergeCell ref="Q84:Q85"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="Q1508:Q1509"/>
+    <mergeCell ref="Q1510:Q1511"/>
+    <mergeCell ref="Q1512:Q1513"/>
+    <mergeCell ref="Q1514:Q1515"/>
+    <mergeCell ref="Q1490:Q1491"/>
+    <mergeCell ref="Q1492:Q1493"/>
+    <mergeCell ref="Q1494:Q1495"/>
+    <mergeCell ref="Q1496:Q1497"/>
+    <mergeCell ref="Q1498:Q1499"/>
+    <mergeCell ref="Q1500:Q1501"/>
+    <mergeCell ref="Q1502:Q1503"/>
+    <mergeCell ref="Q1504:Q1505"/>
+    <mergeCell ref="Q1506:Q1507"/>
+    <mergeCell ref="Q1472:Q1473"/>
+    <mergeCell ref="Q1474:Q1475"/>
+    <mergeCell ref="Q1476:Q1477"/>
+    <mergeCell ref="Q1478:Q1479"/>
+    <mergeCell ref="Q1480:Q1481"/>
+    <mergeCell ref="Q1482:Q1483"/>
+    <mergeCell ref="Q1484:Q1485"/>
+    <mergeCell ref="Q1486:Q1487"/>
+    <mergeCell ref="Q1488:Q1489"/>
+    <mergeCell ref="Q1454:Q1455"/>
+    <mergeCell ref="Q1456:Q1457"/>
+    <mergeCell ref="Q1458:Q1459"/>
+    <mergeCell ref="Q1460:Q1461"/>
+    <mergeCell ref="Q1462:Q1463"/>
+    <mergeCell ref="Q1464:Q1465"/>
+    <mergeCell ref="Q1466:Q1467"/>
+    <mergeCell ref="Q1468:Q1469"/>
+    <mergeCell ref="Q1470:Q1471"/>
+    <mergeCell ref="Q1436:Q1437"/>
+    <mergeCell ref="Q1438:Q1439"/>
+    <mergeCell ref="Q1440:Q1441"/>
+    <mergeCell ref="Q1442:Q1443"/>
+    <mergeCell ref="Q1444:Q1445"/>
+    <mergeCell ref="Q1446:Q1447"/>
+    <mergeCell ref="Q1448:Q1449"/>
+    <mergeCell ref="Q1450:Q1451"/>
+    <mergeCell ref="Q1452:Q1453"/>
+    <mergeCell ref="Q1418:Q1419"/>
+    <mergeCell ref="Q1420:Q1421"/>
+    <mergeCell ref="Q1422:Q1423"/>
+    <mergeCell ref="Q1424:Q1425"/>
+    <mergeCell ref="Q1426:Q1427"/>
+    <mergeCell ref="Q1428:Q1429"/>
+    <mergeCell ref="Q1430:Q1431"/>
+    <mergeCell ref="Q1432:Q1433"/>
+    <mergeCell ref="Q1434:Q1435"/>
+    <mergeCell ref="Q1400:Q1401"/>
+    <mergeCell ref="Q1402:Q1403"/>
+    <mergeCell ref="Q1404:Q1405"/>
+    <mergeCell ref="Q1406:Q1407"/>
+    <mergeCell ref="Q1408:Q1409"/>
+    <mergeCell ref="Q1410:Q1411"/>
+    <mergeCell ref="Q1412:Q1413"/>
+    <mergeCell ref="Q1414:Q1415"/>
+    <mergeCell ref="Q1416:Q1417"/>
+    <mergeCell ref="Q1382:Q1383"/>
+    <mergeCell ref="Q1384:Q1385"/>
+    <mergeCell ref="Q1386:Q1387"/>
+    <mergeCell ref="Q1388:Q1389"/>
+    <mergeCell ref="Q1390:Q1391"/>
+    <mergeCell ref="Q1392:Q1393"/>
+    <mergeCell ref="Q1394:Q1395"/>
+    <mergeCell ref="Q1396:Q1397"/>
+    <mergeCell ref="Q1398:Q1399"/>
+    <mergeCell ref="Q1364:Q1365"/>
+    <mergeCell ref="Q1366:Q1367"/>
+    <mergeCell ref="Q1368:Q1369"/>
+    <mergeCell ref="Q1370:Q1371"/>
+    <mergeCell ref="Q1372:Q1373"/>
+    <mergeCell ref="Q1374:Q1375"/>
+    <mergeCell ref="Q1376:Q1377"/>
+    <mergeCell ref="Q1378:Q1379"/>
+    <mergeCell ref="Q1380:Q1381"/>
+    <mergeCell ref="Q1346:Q1347"/>
+    <mergeCell ref="Q1348:Q1349"/>
+    <mergeCell ref="Q1350:Q1351"/>
+    <mergeCell ref="Q1352:Q1353"/>
+    <mergeCell ref="Q1354:Q1355"/>
+    <mergeCell ref="Q1356:Q1357"/>
+    <mergeCell ref="Q1358:Q1359"/>
+    <mergeCell ref="Q1360:Q1361"/>
+    <mergeCell ref="Q1362:Q1363"/>
+    <mergeCell ref="Q1328:Q1329"/>
+    <mergeCell ref="Q1330:Q1331"/>
+    <mergeCell ref="Q1332:Q1333"/>
+    <mergeCell ref="Q1334:Q1335"/>
+    <mergeCell ref="Q1336:Q1337"/>
+    <mergeCell ref="Q1338:Q1339"/>
+    <mergeCell ref="Q1340:Q1341"/>
+    <mergeCell ref="Q1342:Q1343"/>
+    <mergeCell ref="Q1344:Q1345"/>
+    <mergeCell ref="Q1310:Q1311"/>
+    <mergeCell ref="Q1312:Q1313"/>
+    <mergeCell ref="Q1314:Q1315"/>
+    <mergeCell ref="Q1316:Q1317"/>
+    <mergeCell ref="Q1318:Q1319"/>
+    <mergeCell ref="Q1320:Q1321"/>
+    <mergeCell ref="Q1322:Q1323"/>
+    <mergeCell ref="Q1324:Q1325"/>
+    <mergeCell ref="Q1326:Q1327"/>
+    <mergeCell ref="Q1292:Q1293"/>
+    <mergeCell ref="Q1294:Q1295"/>
+    <mergeCell ref="Q1296:Q1297"/>
+    <mergeCell ref="Q1298:Q1299"/>
+    <mergeCell ref="Q1300:Q1301"/>
+    <mergeCell ref="Q1302:Q1303"/>
+    <mergeCell ref="Q1304:Q1305"/>
+    <mergeCell ref="Q1306:Q1307"/>
+    <mergeCell ref="Q1308:Q1309"/>
+    <mergeCell ref="Q1274:Q1275"/>
+    <mergeCell ref="Q1276:Q1277"/>
+    <mergeCell ref="Q1278:Q1279"/>
+    <mergeCell ref="Q1280:Q1281"/>
+    <mergeCell ref="Q1282:Q1283"/>
+    <mergeCell ref="Q1284:Q1285"/>
+    <mergeCell ref="Q1286:Q1287"/>
+    <mergeCell ref="Q1288:Q1289"/>
+    <mergeCell ref="Q1290:Q1291"/>
+    <mergeCell ref="Q1256:Q1257"/>
+    <mergeCell ref="Q1258:Q1259"/>
+    <mergeCell ref="Q1260:Q1261"/>
+    <mergeCell ref="Q1262:Q1263"/>
+    <mergeCell ref="Q1264:Q1265"/>
+    <mergeCell ref="Q1266:Q1267"/>
+    <mergeCell ref="Q1268:Q1269"/>
+    <mergeCell ref="Q1270:Q1271"/>
+    <mergeCell ref="Q1272:Q1273"/>
+    <mergeCell ref="Q1254:Q1255"/>
+    <mergeCell ref="Q1236:Q1237"/>
+    <mergeCell ref="Q1238:Q1239"/>
+    <mergeCell ref="Q1240:Q1241"/>
+    <mergeCell ref="Q1242:Q1243"/>
+    <mergeCell ref="Q1244:Q1245"/>
+    <mergeCell ref="Q1246:Q1247"/>
+    <mergeCell ref="Q1248:Q1249"/>
+    <mergeCell ref="Q1250:Q1251"/>
+    <mergeCell ref="Q1252:Q1253"/>
+    <mergeCell ref="Q1218:Q1219"/>
+    <mergeCell ref="Q1220:Q1221"/>
+    <mergeCell ref="Q1222:Q1223"/>
+    <mergeCell ref="Q1224:Q1225"/>
+    <mergeCell ref="Q1226:Q1227"/>
+    <mergeCell ref="Q1228:Q1229"/>
+    <mergeCell ref="Q1230:Q1231"/>
+    <mergeCell ref="Q1232:Q1233"/>
+    <mergeCell ref="Q1234:Q1235"/>
+    <mergeCell ref="Q1200:Q1201"/>
+    <mergeCell ref="Q1202:Q1203"/>
+    <mergeCell ref="Q1204:Q1205"/>
+    <mergeCell ref="Q1206:Q1207"/>
+    <mergeCell ref="Q1208:Q1209"/>
+    <mergeCell ref="Q1210:Q1211"/>
+    <mergeCell ref="Q1212:Q1213"/>
+    <mergeCell ref="Q1214:Q1215"/>
+    <mergeCell ref="Q1216:Q1217"/>
+    <mergeCell ref="Q1182:Q1183"/>
+    <mergeCell ref="Q1184:Q1185"/>
+    <mergeCell ref="Q1186:Q1187"/>
+    <mergeCell ref="Q1188:Q1189"/>
+    <mergeCell ref="Q1190:Q1191"/>
+    <mergeCell ref="Q1192:Q1193"/>
+    <mergeCell ref="Q1194:Q1195"/>
+    <mergeCell ref="Q1196:Q1197"/>
+    <mergeCell ref="Q1198:Q1199"/>
+    <mergeCell ref="Q1164:Q1165"/>
+    <mergeCell ref="Q1166:Q1167"/>
+    <mergeCell ref="Q1168:Q1169"/>
+    <mergeCell ref="Q1170:Q1171"/>
+    <mergeCell ref="Q1172:Q1173"/>
+    <mergeCell ref="Q1174:Q1175"/>
+    <mergeCell ref="Q1176:Q1177"/>
+    <mergeCell ref="Q1178:Q1179"/>
+    <mergeCell ref="Q1180:Q1181"/>
+    <mergeCell ref="Q1146:Q1147"/>
+    <mergeCell ref="Q1148:Q1149"/>
+    <mergeCell ref="Q1150:Q1151"/>
+    <mergeCell ref="Q1152:Q1153"/>
+    <mergeCell ref="Q1154:Q1155"/>
+    <mergeCell ref="Q1156:Q1157"/>
+    <mergeCell ref="Q1158:Q1159"/>
+    <mergeCell ref="Q1160:Q1161"/>
+    <mergeCell ref="Q1162:Q1163"/>
+    <mergeCell ref="Q1128:Q1129"/>
+    <mergeCell ref="Q1130:Q1131"/>
+    <mergeCell ref="Q1132:Q1133"/>
+    <mergeCell ref="Q1134:Q1135"/>
+    <mergeCell ref="Q1136:Q1137"/>
+    <mergeCell ref="Q1138:Q1139"/>
+    <mergeCell ref="Q1140:Q1141"/>
+    <mergeCell ref="Q1142:Q1143"/>
+    <mergeCell ref="Q1144:Q1145"/>
+    <mergeCell ref="Q1110:Q1111"/>
+    <mergeCell ref="Q1112:Q1113"/>
+    <mergeCell ref="Q1114:Q1115"/>
+    <mergeCell ref="Q1116:Q1117"/>
+    <mergeCell ref="Q1118:Q1119"/>
+    <mergeCell ref="Q1120:Q1121"/>
+    <mergeCell ref="Q1122:Q1123"/>
+    <mergeCell ref="Q1124:Q1125"/>
+    <mergeCell ref="Q1126:Q1127"/>
+    <mergeCell ref="Q1092:Q1093"/>
+    <mergeCell ref="Q1094:Q1095"/>
+    <mergeCell ref="Q1096:Q1097"/>
+    <mergeCell ref="Q1098:Q1099"/>
+    <mergeCell ref="Q1100:Q1101"/>
+    <mergeCell ref="Q1102:Q1103"/>
+    <mergeCell ref="Q1104:Q1105"/>
+    <mergeCell ref="Q1106:Q1107"/>
+    <mergeCell ref="Q1108:Q1109"/>
     <mergeCell ref="Q202:Q203"/>
     <mergeCell ref="Q204:Q205"/>
     <mergeCell ref="Q206:Q207"/>
@@ -99247,218 +99001,527 @@
     <mergeCell ref="Q46:Q47"/>
     <mergeCell ref="Q48:Q49"/>
     <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="Q1092:Q1093"/>
-    <mergeCell ref="Q1094:Q1095"/>
-    <mergeCell ref="Q1096:Q1097"/>
-    <mergeCell ref="Q1098:Q1099"/>
-    <mergeCell ref="Q1100:Q1101"/>
-    <mergeCell ref="Q1102:Q1103"/>
-    <mergeCell ref="Q1104:Q1105"/>
-    <mergeCell ref="Q1106:Q1107"/>
-    <mergeCell ref="Q1108:Q1109"/>
-    <mergeCell ref="Q1110:Q1111"/>
-    <mergeCell ref="Q1112:Q1113"/>
-    <mergeCell ref="Q1114:Q1115"/>
-    <mergeCell ref="Q1116:Q1117"/>
-    <mergeCell ref="Q1118:Q1119"/>
-    <mergeCell ref="Q1120:Q1121"/>
-    <mergeCell ref="Q1122:Q1123"/>
-    <mergeCell ref="Q1124:Q1125"/>
-    <mergeCell ref="Q1126:Q1127"/>
-    <mergeCell ref="Q1128:Q1129"/>
-    <mergeCell ref="Q1130:Q1131"/>
-    <mergeCell ref="Q1132:Q1133"/>
-    <mergeCell ref="Q1134:Q1135"/>
-    <mergeCell ref="Q1136:Q1137"/>
-    <mergeCell ref="Q1138:Q1139"/>
-    <mergeCell ref="Q1140:Q1141"/>
-    <mergeCell ref="Q1142:Q1143"/>
-    <mergeCell ref="Q1144:Q1145"/>
-    <mergeCell ref="Q1146:Q1147"/>
-    <mergeCell ref="Q1148:Q1149"/>
-    <mergeCell ref="Q1150:Q1151"/>
-    <mergeCell ref="Q1152:Q1153"/>
-    <mergeCell ref="Q1154:Q1155"/>
-    <mergeCell ref="Q1156:Q1157"/>
-    <mergeCell ref="Q1158:Q1159"/>
-    <mergeCell ref="Q1160:Q1161"/>
-    <mergeCell ref="Q1162:Q1163"/>
-    <mergeCell ref="Q1164:Q1165"/>
-    <mergeCell ref="Q1166:Q1167"/>
-    <mergeCell ref="Q1168:Q1169"/>
-    <mergeCell ref="Q1170:Q1171"/>
-    <mergeCell ref="Q1172:Q1173"/>
-    <mergeCell ref="Q1174:Q1175"/>
-    <mergeCell ref="Q1176:Q1177"/>
-    <mergeCell ref="Q1178:Q1179"/>
-    <mergeCell ref="Q1180:Q1181"/>
-    <mergeCell ref="Q1182:Q1183"/>
-    <mergeCell ref="Q1184:Q1185"/>
-    <mergeCell ref="Q1186:Q1187"/>
-    <mergeCell ref="Q1188:Q1189"/>
-    <mergeCell ref="Q1190:Q1191"/>
-    <mergeCell ref="Q1192:Q1193"/>
-    <mergeCell ref="Q1194:Q1195"/>
-    <mergeCell ref="Q1196:Q1197"/>
-    <mergeCell ref="Q1198:Q1199"/>
-    <mergeCell ref="Q1200:Q1201"/>
-    <mergeCell ref="Q1202:Q1203"/>
-    <mergeCell ref="Q1204:Q1205"/>
-    <mergeCell ref="Q1206:Q1207"/>
-    <mergeCell ref="Q1208:Q1209"/>
-    <mergeCell ref="Q1210:Q1211"/>
-    <mergeCell ref="Q1212:Q1213"/>
-    <mergeCell ref="Q1214:Q1215"/>
-    <mergeCell ref="Q1216:Q1217"/>
-    <mergeCell ref="Q1218:Q1219"/>
-    <mergeCell ref="Q1220:Q1221"/>
-    <mergeCell ref="Q1222:Q1223"/>
-    <mergeCell ref="Q1224:Q1225"/>
-    <mergeCell ref="Q1226:Q1227"/>
-    <mergeCell ref="Q1228:Q1229"/>
-    <mergeCell ref="Q1230:Q1231"/>
-    <mergeCell ref="Q1232:Q1233"/>
-    <mergeCell ref="Q1234:Q1235"/>
-    <mergeCell ref="Q1254:Q1255"/>
-    <mergeCell ref="Q1236:Q1237"/>
-    <mergeCell ref="Q1238:Q1239"/>
-    <mergeCell ref="Q1240:Q1241"/>
-    <mergeCell ref="Q1242:Q1243"/>
-    <mergeCell ref="Q1244:Q1245"/>
-    <mergeCell ref="Q1246:Q1247"/>
-    <mergeCell ref="Q1248:Q1249"/>
-    <mergeCell ref="Q1250:Q1251"/>
-    <mergeCell ref="Q1252:Q1253"/>
-    <mergeCell ref="Q1256:Q1257"/>
-    <mergeCell ref="Q1258:Q1259"/>
-    <mergeCell ref="Q1260:Q1261"/>
-    <mergeCell ref="Q1262:Q1263"/>
-    <mergeCell ref="Q1264:Q1265"/>
-    <mergeCell ref="Q1266:Q1267"/>
-    <mergeCell ref="Q1268:Q1269"/>
-    <mergeCell ref="Q1270:Q1271"/>
-    <mergeCell ref="Q1272:Q1273"/>
-    <mergeCell ref="Q1274:Q1275"/>
-    <mergeCell ref="Q1276:Q1277"/>
-    <mergeCell ref="Q1278:Q1279"/>
-    <mergeCell ref="Q1280:Q1281"/>
-    <mergeCell ref="Q1282:Q1283"/>
-    <mergeCell ref="Q1284:Q1285"/>
-    <mergeCell ref="Q1286:Q1287"/>
-    <mergeCell ref="Q1288:Q1289"/>
-    <mergeCell ref="Q1290:Q1291"/>
-    <mergeCell ref="Q1292:Q1293"/>
-    <mergeCell ref="Q1294:Q1295"/>
-    <mergeCell ref="Q1296:Q1297"/>
-    <mergeCell ref="Q1298:Q1299"/>
-    <mergeCell ref="Q1300:Q1301"/>
-    <mergeCell ref="Q1302:Q1303"/>
-    <mergeCell ref="Q1304:Q1305"/>
-    <mergeCell ref="Q1306:Q1307"/>
-    <mergeCell ref="Q1308:Q1309"/>
-    <mergeCell ref="Q1310:Q1311"/>
-    <mergeCell ref="Q1312:Q1313"/>
-    <mergeCell ref="Q1314:Q1315"/>
-    <mergeCell ref="Q1316:Q1317"/>
-    <mergeCell ref="Q1318:Q1319"/>
-    <mergeCell ref="Q1320:Q1321"/>
-    <mergeCell ref="Q1322:Q1323"/>
-    <mergeCell ref="Q1324:Q1325"/>
-    <mergeCell ref="Q1326:Q1327"/>
-    <mergeCell ref="Q1328:Q1329"/>
-    <mergeCell ref="Q1330:Q1331"/>
-    <mergeCell ref="Q1332:Q1333"/>
-    <mergeCell ref="Q1334:Q1335"/>
-    <mergeCell ref="Q1336:Q1337"/>
-    <mergeCell ref="Q1338:Q1339"/>
-    <mergeCell ref="Q1340:Q1341"/>
-    <mergeCell ref="Q1342:Q1343"/>
-    <mergeCell ref="Q1344:Q1345"/>
-    <mergeCell ref="Q1346:Q1347"/>
-    <mergeCell ref="Q1348:Q1349"/>
-    <mergeCell ref="Q1350:Q1351"/>
-    <mergeCell ref="Q1352:Q1353"/>
-    <mergeCell ref="Q1354:Q1355"/>
-    <mergeCell ref="Q1356:Q1357"/>
-    <mergeCell ref="Q1358:Q1359"/>
-    <mergeCell ref="Q1360:Q1361"/>
-    <mergeCell ref="Q1362:Q1363"/>
-    <mergeCell ref="Q1364:Q1365"/>
-    <mergeCell ref="Q1366:Q1367"/>
-    <mergeCell ref="Q1368:Q1369"/>
-    <mergeCell ref="Q1370:Q1371"/>
-    <mergeCell ref="Q1372:Q1373"/>
-    <mergeCell ref="Q1374:Q1375"/>
-    <mergeCell ref="Q1376:Q1377"/>
-    <mergeCell ref="Q1378:Q1379"/>
-    <mergeCell ref="Q1380:Q1381"/>
-    <mergeCell ref="Q1382:Q1383"/>
-    <mergeCell ref="Q1384:Q1385"/>
-    <mergeCell ref="Q1386:Q1387"/>
-    <mergeCell ref="Q1388:Q1389"/>
-    <mergeCell ref="Q1390:Q1391"/>
-    <mergeCell ref="Q1392:Q1393"/>
-    <mergeCell ref="Q1394:Q1395"/>
-    <mergeCell ref="Q1396:Q1397"/>
-    <mergeCell ref="Q1398:Q1399"/>
-    <mergeCell ref="Q1400:Q1401"/>
-    <mergeCell ref="Q1402:Q1403"/>
-    <mergeCell ref="Q1404:Q1405"/>
-    <mergeCell ref="Q1406:Q1407"/>
-    <mergeCell ref="Q1408:Q1409"/>
-    <mergeCell ref="Q1410:Q1411"/>
-    <mergeCell ref="Q1412:Q1413"/>
-    <mergeCell ref="Q1414:Q1415"/>
-    <mergeCell ref="Q1416:Q1417"/>
-    <mergeCell ref="Q1418:Q1419"/>
-    <mergeCell ref="Q1420:Q1421"/>
-    <mergeCell ref="Q1422:Q1423"/>
-    <mergeCell ref="Q1424:Q1425"/>
-    <mergeCell ref="Q1426:Q1427"/>
-    <mergeCell ref="Q1428:Q1429"/>
-    <mergeCell ref="Q1430:Q1431"/>
-    <mergeCell ref="Q1432:Q1433"/>
-    <mergeCell ref="Q1434:Q1435"/>
-    <mergeCell ref="Q1436:Q1437"/>
-    <mergeCell ref="Q1438:Q1439"/>
-    <mergeCell ref="Q1440:Q1441"/>
-    <mergeCell ref="Q1442:Q1443"/>
-    <mergeCell ref="Q1444:Q1445"/>
-    <mergeCell ref="Q1446:Q1447"/>
-    <mergeCell ref="Q1448:Q1449"/>
-    <mergeCell ref="Q1450:Q1451"/>
-    <mergeCell ref="Q1452:Q1453"/>
-    <mergeCell ref="Q1454:Q1455"/>
-    <mergeCell ref="Q1456:Q1457"/>
-    <mergeCell ref="Q1458:Q1459"/>
-    <mergeCell ref="Q1460:Q1461"/>
-    <mergeCell ref="Q1462:Q1463"/>
-    <mergeCell ref="Q1464:Q1465"/>
-    <mergeCell ref="Q1466:Q1467"/>
-    <mergeCell ref="Q1468:Q1469"/>
-    <mergeCell ref="Q1470:Q1471"/>
-    <mergeCell ref="Q1472:Q1473"/>
-    <mergeCell ref="Q1474:Q1475"/>
-    <mergeCell ref="Q1476:Q1477"/>
-    <mergeCell ref="Q1478:Q1479"/>
-    <mergeCell ref="Q1480:Q1481"/>
-    <mergeCell ref="Q1482:Q1483"/>
-    <mergeCell ref="Q1484:Q1485"/>
-    <mergeCell ref="Q1486:Q1487"/>
-    <mergeCell ref="Q1488:Q1489"/>
-    <mergeCell ref="Q1508:Q1509"/>
-    <mergeCell ref="Q1510:Q1511"/>
-    <mergeCell ref="Q1512:Q1513"/>
-    <mergeCell ref="Q1514:Q1515"/>
-    <mergeCell ref="Q1490:Q1491"/>
-    <mergeCell ref="Q1492:Q1493"/>
-    <mergeCell ref="Q1494:Q1495"/>
-    <mergeCell ref="Q1496:Q1497"/>
-    <mergeCell ref="Q1498:Q1499"/>
-    <mergeCell ref="Q1500:Q1501"/>
-    <mergeCell ref="Q1502:Q1503"/>
-    <mergeCell ref="Q1504:Q1505"/>
-    <mergeCell ref="Q1506:Q1507"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="Q74:Q75"/>
+    <mergeCell ref="Q76:Q77"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="Q80:Q81"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="Q86:Q87"/>
+    <mergeCell ref="Q88:Q89"/>
+    <mergeCell ref="Q90:Q91"/>
+    <mergeCell ref="Q84:Q85"/>
+    <mergeCell ref="Q92:Q93"/>
+    <mergeCell ref="Q94:Q95"/>
+    <mergeCell ref="Q96:Q97"/>
+    <mergeCell ref="Q98:Q99"/>
+    <mergeCell ref="Q100:Q101"/>
+    <mergeCell ref="Q102:Q103"/>
+    <mergeCell ref="Q104:Q105"/>
+    <mergeCell ref="Q106:Q107"/>
+    <mergeCell ref="Q108:Q109"/>
+    <mergeCell ref="Q110:Q111"/>
+    <mergeCell ref="Q112:Q113"/>
+    <mergeCell ref="Q114:Q115"/>
+    <mergeCell ref="Q116:Q117"/>
+    <mergeCell ref="Q118:Q119"/>
+    <mergeCell ref="Q120:Q121"/>
+    <mergeCell ref="Q122:Q123"/>
+    <mergeCell ref="Q124:Q125"/>
+    <mergeCell ref="Q126:Q127"/>
+    <mergeCell ref="Q128:Q129"/>
+    <mergeCell ref="Q130:Q131"/>
+    <mergeCell ref="Q132:Q133"/>
+    <mergeCell ref="Q134:Q135"/>
+    <mergeCell ref="Q136:Q137"/>
+    <mergeCell ref="Q138:Q139"/>
+    <mergeCell ref="Q140:Q141"/>
+    <mergeCell ref="Q152:Q153"/>
+    <mergeCell ref="Q154:Q155"/>
+    <mergeCell ref="Q156:Q157"/>
+    <mergeCell ref="Q142:Q143"/>
+    <mergeCell ref="Q144:Q145"/>
+    <mergeCell ref="Q146:Q147"/>
+    <mergeCell ref="Q148:Q149"/>
+    <mergeCell ref="Q150:Q151"/>
+    <mergeCell ref="Q158:Q159"/>
+    <mergeCell ref="Q160:Q161"/>
+    <mergeCell ref="Q162:Q163"/>
+    <mergeCell ref="Q164:Q165"/>
+    <mergeCell ref="Q166:Q167"/>
+    <mergeCell ref="Q168:Q169"/>
+    <mergeCell ref="Q170:Q171"/>
+    <mergeCell ref="Q172:Q173"/>
+    <mergeCell ref="Q174:Q175"/>
+    <mergeCell ref="Q176:Q177"/>
+    <mergeCell ref="Q188:Q189"/>
+    <mergeCell ref="Q190:Q191"/>
+    <mergeCell ref="Q178:Q179"/>
+    <mergeCell ref="Q180:Q181"/>
+    <mergeCell ref="Q182:Q183"/>
+    <mergeCell ref="Q184:Q185"/>
+    <mergeCell ref="Q186:Q187"/>
+    <mergeCell ref="Q208:Q209"/>
+    <mergeCell ref="Q210:Q211"/>
+    <mergeCell ref="Q212:Q213"/>
+    <mergeCell ref="Q214:Q215"/>
+    <mergeCell ref="Q216:Q217"/>
+    <mergeCell ref="Q218:Q219"/>
+    <mergeCell ref="Q220:Q221"/>
+    <mergeCell ref="Q222:Q223"/>
+    <mergeCell ref="Q224:Q225"/>
+    <mergeCell ref="Q226:Q227"/>
+    <mergeCell ref="Q228:Q229"/>
+    <mergeCell ref="Q230:Q231"/>
+    <mergeCell ref="Q232:Q233"/>
+    <mergeCell ref="Q234:Q235"/>
+    <mergeCell ref="Q236:Q237"/>
+    <mergeCell ref="Q238:Q239"/>
+    <mergeCell ref="Q240:Q241"/>
+    <mergeCell ref="Q242:Q243"/>
+    <mergeCell ref="Q244:Q245"/>
+    <mergeCell ref="Q246:Q247"/>
+    <mergeCell ref="Q248:Q249"/>
+    <mergeCell ref="Q250:Q251"/>
+    <mergeCell ref="Q252:Q253"/>
+    <mergeCell ref="Q254:Q255"/>
+    <mergeCell ref="Q256:Q257"/>
+    <mergeCell ref="Q258:Q259"/>
+    <mergeCell ref="Q260:Q261"/>
+    <mergeCell ref="Q262:Q263"/>
+    <mergeCell ref="Q264:Q265"/>
+    <mergeCell ref="Q266:Q267"/>
+    <mergeCell ref="Q268:Q269"/>
+    <mergeCell ref="Q270:Q271"/>
+    <mergeCell ref="Q272:Q273"/>
+    <mergeCell ref="Q274:Q275"/>
+    <mergeCell ref="Q276:Q277"/>
+    <mergeCell ref="Q278:Q279"/>
+    <mergeCell ref="Q296:Q297"/>
+    <mergeCell ref="Q298:Q299"/>
+    <mergeCell ref="Q300:Q301"/>
+    <mergeCell ref="Q302:Q303"/>
+    <mergeCell ref="Q304:Q305"/>
+    <mergeCell ref="Q280:Q281"/>
+    <mergeCell ref="Q282:Q283"/>
+    <mergeCell ref="Q284:Q285"/>
+    <mergeCell ref="Q286:Q287"/>
+    <mergeCell ref="Q288:Q289"/>
+    <mergeCell ref="Q290:Q291"/>
+    <mergeCell ref="Q292:Q293"/>
+    <mergeCell ref="Q294:Q295"/>
+    <mergeCell ref="Q306:Q307"/>
+    <mergeCell ref="Q308:Q309"/>
+    <mergeCell ref="Q310:Q311"/>
+    <mergeCell ref="Q312:Q313"/>
+    <mergeCell ref="Q314:Q315"/>
+    <mergeCell ref="Q316:Q317"/>
+    <mergeCell ref="Q318:Q319"/>
+    <mergeCell ref="Q320:Q321"/>
+    <mergeCell ref="Q322:Q323"/>
+    <mergeCell ref="Q324:Q325"/>
+    <mergeCell ref="Q326:Q327"/>
+    <mergeCell ref="Q328:Q329"/>
+    <mergeCell ref="Q330:Q331"/>
+    <mergeCell ref="Q332:Q333"/>
+    <mergeCell ref="Q334:Q335"/>
+    <mergeCell ref="Q336:Q337"/>
+    <mergeCell ref="Q338:Q339"/>
+    <mergeCell ref="Q340:Q341"/>
+    <mergeCell ref="Q342:Q343"/>
+    <mergeCell ref="Q344:Q345"/>
+    <mergeCell ref="Q346:Q347"/>
+    <mergeCell ref="Q348:Q349"/>
+    <mergeCell ref="Q350:Q351"/>
+    <mergeCell ref="Q352:Q353"/>
+    <mergeCell ref="Q354:Q355"/>
+    <mergeCell ref="Q356:Q357"/>
+    <mergeCell ref="Q358:Q359"/>
+    <mergeCell ref="Q378:Q379"/>
+    <mergeCell ref="Q380:Q381"/>
+    <mergeCell ref="Q382:Q383"/>
+    <mergeCell ref="Q360:Q361"/>
+    <mergeCell ref="Q362:Q363"/>
+    <mergeCell ref="Q364:Q365"/>
+    <mergeCell ref="Q366:Q367"/>
+    <mergeCell ref="Q368:Q369"/>
+    <mergeCell ref="Q370:Q371"/>
+    <mergeCell ref="Q372:Q373"/>
+    <mergeCell ref="Q374:Q375"/>
+    <mergeCell ref="Q376:Q377"/>
+    <mergeCell ref="Q384:Q385"/>
+    <mergeCell ref="Q386:Q387"/>
+    <mergeCell ref="Q388:Q389"/>
+    <mergeCell ref="Q390:Q391"/>
+    <mergeCell ref="Q392:Q393"/>
+    <mergeCell ref="Q394:Q395"/>
+    <mergeCell ref="Q396:Q397"/>
+    <mergeCell ref="Q398:Q399"/>
+    <mergeCell ref="Q400:Q401"/>
+    <mergeCell ref="Q402:Q403"/>
+    <mergeCell ref="Q404:Q405"/>
+    <mergeCell ref="Q406:Q407"/>
+    <mergeCell ref="Q408:Q409"/>
+    <mergeCell ref="Q410:Q411"/>
+    <mergeCell ref="Q412:Q413"/>
+    <mergeCell ref="Q414:Q415"/>
+    <mergeCell ref="Q416:Q417"/>
+    <mergeCell ref="Q418:Q419"/>
+    <mergeCell ref="Q420:Q421"/>
+    <mergeCell ref="Q422:Q423"/>
+    <mergeCell ref="Q424:Q425"/>
+    <mergeCell ref="Q426:Q427"/>
+    <mergeCell ref="Q428:Q429"/>
+    <mergeCell ref="Q430:Q431"/>
+    <mergeCell ref="Q432:Q433"/>
+    <mergeCell ref="Q434:Q435"/>
+    <mergeCell ref="Q436:Q437"/>
+    <mergeCell ref="Q438:Q439"/>
+    <mergeCell ref="Q440:Q441"/>
+    <mergeCell ref="Q442:Q443"/>
+    <mergeCell ref="Q444:Q445"/>
+    <mergeCell ref="Q446:Q447"/>
+    <mergeCell ref="Q448:Q449"/>
+    <mergeCell ref="Q450:Q451"/>
+    <mergeCell ref="Q452:Q453"/>
+    <mergeCell ref="Q454:Q455"/>
+    <mergeCell ref="Q456:Q457"/>
+    <mergeCell ref="Q458:Q459"/>
+    <mergeCell ref="Q460:Q461"/>
+    <mergeCell ref="Q462:Q463"/>
+    <mergeCell ref="Q464:Q465"/>
+    <mergeCell ref="Q466:Q467"/>
+    <mergeCell ref="Q468:Q469"/>
+    <mergeCell ref="Q470:Q471"/>
+    <mergeCell ref="Q472:Q473"/>
+    <mergeCell ref="Q474:Q475"/>
+    <mergeCell ref="Q476:Q477"/>
+    <mergeCell ref="Q478:Q479"/>
+    <mergeCell ref="Q480:Q481"/>
+    <mergeCell ref="Q482:Q483"/>
+    <mergeCell ref="Q484:Q485"/>
+    <mergeCell ref="Q486:Q487"/>
+    <mergeCell ref="Q488:Q489"/>
+    <mergeCell ref="Q490:Q491"/>
+    <mergeCell ref="Q492:Q493"/>
+    <mergeCell ref="Q494:Q495"/>
+    <mergeCell ref="Q496:Q497"/>
+    <mergeCell ref="Q498:Q499"/>
+    <mergeCell ref="Q500:Q501"/>
+    <mergeCell ref="Q502:Q503"/>
+    <mergeCell ref="Q504:Q505"/>
+    <mergeCell ref="Q506:Q507"/>
+    <mergeCell ref="Q508:Q509"/>
+    <mergeCell ref="Q510:Q511"/>
+    <mergeCell ref="Q512:Q513"/>
+    <mergeCell ref="Q514:Q515"/>
+    <mergeCell ref="Q516:Q517"/>
+    <mergeCell ref="Q518:Q519"/>
+    <mergeCell ref="Q520:Q521"/>
+    <mergeCell ref="Q522:Q523"/>
+    <mergeCell ref="Q524:Q525"/>
+    <mergeCell ref="Q526:Q527"/>
+    <mergeCell ref="Q528:Q529"/>
+    <mergeCell ref="Q530:Q531"/>
+    <mergeCell ref="Q532:Q533"/>
+    <mergeCell ref="Q534:Q535"/>
+    <mergeCell ref="Q536:Q537"/>
+    <mergeCell ref="Q538:Q539"/>
+    <mergeCell ref="Q540:Q541"/>
+    <mergeCell ref="Q542:Q543"/>
+    <mergeCell ref="Q544:Q545"/>
+    <mergeCell ref="Q546:Q547"/>
+    <mergeCell ref="Q548:Q549"/>
+    <mergeCell ref="Q550:Q551"/>
+    <mergeCell ref="Q552:Q553"/>
+    <mergeCell ref="Q554:Q555"/>
+    <mergeCell ref="Q556:Q557"/>
+    <mergeCell ref="Q558:Q559"/>
+    <mergeCell ref="Q560:Q561"/>
+    <mergeCell ref="Q562:Q563"/>
+    <mergeCell ref="Q564:Q565"/>
+    <mergeCell ref="Q566:Q567"/>
+    <mergeCell ref="Q568:Q569"/>
+    <mergeCell ref="Q570:Q571"/>
+    <mergeCell ref="Q572:Q573"/>
+    <mergeCell ref="Q574:Q575"/>
+    <mergeCell ref="Q576:Q577"/>
+    <mergeCell ref="Q578:Q579"/>
+    <mergeCell ref="Q580:Q581"/>
+    <mergeCell ref="Q582:Q583"/>
+    <mergeCell ref="Q584:Q585"/>
+    <mergeCell ref="Q586:Q587"/>
+    <mergeCell ref="Q588:Q589"/>
+    <mergeCell ref="Q590:Q591"/>
+    <mergeCell ref="Q592:Q593"/>
+    <mergeCell ref="Q594:Q595"/>
+    <mergeCell ref="Q596:Q597"/>
+    <mergeCell ref="Q598:Q599"/>
+    <mergeCell ref="Q600:Q601"/>
+    <mergeCell ref="Q602:Q603"/>
+    <mergeCell ref="Q604:Q605"/>
+    <mergeCell ref="Q606:Q607"/>
+    <mergeCell ref="Q608:Q609"/>
+    <mergeCell ref="Q610:Q611"/>
+    <mergeCell ref="Q612:Q613"/>
+    <mergeCell ref="Q614:Q615"/>
+    <mergeCell ref="Q616:Q617"/>
+    <mergeCell ref="Q618:Q619"/>
+    <mergeCell ref="Q620:Q621"/>
+    <mergeCell ref="Q622:Q623"/>
+    <mergeCell ref="Q624:Q625"/>
+    <mergeCell ref="Q626:Q627"/>
+    <mergeCell ref="Q628:Q629"/>
+    <mergeCell ref="Q630:Q631"/>
+    <mergeCell ref="Q632:Q633"/>
+    <mergeCell ref="Q634:Q635"/>
+    <mergeCell ref="Q636:Q637"/>
+    <mergeCell ref="Q638:Q639"/>
+    <mergeCell ref="Q640:Q641"/>
+    <mergeCell ref="Q642:Q643"/>
+    <mergeCell ref="Q644:Q645"/>
+    <mergeCell ref="Q646:Q647"/>
+    <mergeCell ref="Q648:Q649"/>
+    <mergeCell ref="Q650:Q651"/>
+    <mergeCell ref="Q652:Q653"/>
+    <mergeCell ref="Q672:Q673"/>
+    <mergeCell ref="Q674:Q675"/>
+    <mergeCell ref="Q676:Q677"/>
+    <mergeCell ref="Q678:Q679"/>
+    <mergeCell ref="Q680:Q681"/>
+    <mergeCell ref="Q682:Q683"/>
+    <mergeCell ref="Q684:Q685"/>
+    <mergeCell ref="Q686:Q687"/>
+    <mergeCell ref="Q654:Q655"/>
+    <mergeCell ref="Q656:Q657"/>
+    <mergeCell ref="Q658:Q659"/>
+    <mergeCell ref="Q660:Q661"/>
+    <mergeCell ref="Q662:Q663"/>
+    <mergeCell ref="Q664:Q665"/>
+    <mergeCell ref="Q666:Q667"/>
+    <mergeCell ref="Q668:Q669"/>
+    <mergeCell ref="Q670:Q671"/>
+    <mergeCell ref="Q688:Q689"/>
+    <mergeCell ref="Q690:Q691"/>
+    <mergeCell ref="Q692:Q693"/>
+    <mergeCell ref="Q694:Q695"/>
+    <mergeCell ref="Q696:Q697"/>
+    <mergeCell ref="Q698:Q699"/>
+    <mergeCell ref="Q700:Q701"/>
+    <mergeCell ref="Q702:Q703"/>
+    <mergeCell ref="Q704:Q705"/>
+    <mergeCell ref="Q706:Q707"/>
+    <mergeCell ref="Q708:Q709"/>
+    <mergeCell ref="Q710:Q711"/>
+    <mergeCell ref="Q712:Q713"/>
+    <mergeCell ref="Q714:Q715"/>
+    <mergeCell ref="Q716:Q717"/>
+    <mergeCell ref="Q718:Q719"/>
+    <mergeCell ref="Q720:Q721"/>
+    <mergeCell ref="Q722:Q723"/>
+    <mergeCell ref="Q724:Q725"/>
+    <mergeCell ref="Q726:Q727"/>
+    <mergeCell ref="Q728:Q729"/>
+    <mergeCell ref="Q730:Q731"/>
+    <mergeCell ref="Q732:Q733"/>
+    <mergeCell ref="Q734:Q735"/>
+    <mergeCell ref="Q736:Q737"/>
+    <mergeCell ref="Q738:Q739"/>
+    <mergeCell ref="Q740:Q741"/>
+    <mergeCell ref="Q742:Q743"/>
+    <mergeCell ref="Q744:Q745"/>
+    <mergeCell ref="Q746:Q747"/>
+    <mergeCell ref="Q748:Q749"/>
+    <mergeCell ref="Q750:Q751"/>
+    <mergeCell ref="Q752:Q753"/>
+    <mergeCell ref="Q754:Q755"/>
+    <mergeCell ref="Q756:Q757"/>
+    <mergeCell ref="Q758:Q759"/>
+    <mergeCell ref="Q760:Q761"/>
+    <mergeCell ref="Q762:Q763"/>
+    <mergeCell ref="Q764:Q765"/>
+    <mergeCell ref="Q766:Q767"/>
+    <mergeCell ref="Q768:Q769"/>
+    <mergeCell ref="Q770:Q771"/>
+    <mergeCell ref="Q772:Q773"/>
+    <mergeCell ref="Q774:Q775"/>
+    <mergeCell ref="Q776:Q777"/>
+    <mergeCell ref="Q778:Q779"/>
+    <mergeCell ref="Q780:Q781"/>
+    <mergeCell ref="Q782:Q783"/>
+    <mergeCell ref="Q784:Q785"/>
+    <mergeCell ref="Q786:Q787"/>
+    <mergeCell ref="Q788:Q789"/>
+    <mergeCell ref="Q790:Q791"/>
+    <mergeCell ref="Q792:Q793"/>
+    <mergeCell ref="Q794:Q795"/>
+    <mergeCell ref="Q796:Q797"/>
+    <mergeCell ref="Q798:Q799"/>
+    <mergeCell ref="Q800:Q801"/>
+    <mergeCell ref="Q802:Q803"/>
+    <mergeCell ref="Q804:Q805"/>
+    <mergeCell ref="Q806:Q807"/>
+    <mergeCell ref="Q808:Q809"/>
+    <mergeCell ref="Q810:Q811"/>
+    <mergeCell ref="Q812:Q813"/>
+    <mergeCell ref="Q814:Q815"/>
+    <mergeCell ref="Q816:Q817"/>
+    <mergeCell ref="Q818:Q819"/>
+    <mergeCell ref="Q820:Q821"/>
+    <mergeCell ref="Q822:Q823"/>
+    <mergeCell ref="Q824:Q825"/>
+    <mergeCell ref="Q826:Q827"/>
+    <mergeCell ref="Q828:Q829"/>
+    <mergeCell ref="Q830:Q831"/>
+    <mergeCell ref="Q832:Q833"/>
+    <mergeCell ref="Q834:Q835"/>
+    <mergeCell ref="Q836:Q837"/>
+    <mergeCell ref="Q838:Q839"/>
+    <mergeCell ref="Q840:Q841"/>
+    <mergeCell ref="Q842:Q843"/>
+    <mergeCell ref="Q844:Q845"/>
+    <mergeCell ref="Q846:Q847"/>
+    <mergeCell ref="Q848:Q849"/>
+    <mergeCell ref="Q850:Q851"/>
+    <mergeCell ref="Q852:Q853"/>
+    <mergeCell ref="Q854:Q855"/>
+    <mergeCell ref="Q856:Q857"/>
+    <mergeCell ref="Q858:Q859"/>
+    <mergeCell ref="Q860:Q861"/>
+    <mergeCell ref="Q862:Q863"/>
+    <mergeCell ref="Q864:Q865"/>
+    <mergeCell ref="Q866:Q867"/>
+    <mergeCell ref="Q868:Q869"/>
+    <mergeCell ref="Q870:Q871"/>
+    <mergeCell ref="Q872:Q873"/>
+    <mergeCell ref="Q874:Q875"/>
+    <mergeCell ref="Q876:Q877"/>
+    <mergeCell ref="Q878:Q879"/>
+    <mergeCell ref="Q880:Q881"/>
+    <mergeCell ref="Q882:Q883"/>
+    <mergeCell ref="Q884:Q885"/>
+    <mergeCell ref="Q886:Q887"/>
+    <mergeCell ref="Q888:Q889"/>
+    <mergeCell ref="Q890:Q891"/>
+    <mergeCell ref="Q892:Q893"/>
+    <mergeCell ref="Q894:Q895"/>
+    <mergeCell ref="Q896:Q897"/>
+    <mergeCell ref="Q898:Q899"/>
+    <mergeCell ref="Q900:Q901"/>
+    <mergeCell ref="Q902:Q903"/>
+    <mergeCell ref="Q904:Q905"/>
+    <mergeCell ref="Q906:Q907"/>
+    <mergeCell ref="Q908:Q909"/>
+    <mergeCell ref="Q910:Q911"/>
+    <mergeCell ref="Q912:Q913"/>
+    <mergeCell ref="Q914:Q915"/>
+    <mergeCell ref="Q916:Q917"/>
+    <mergeCell ref="Q918:Q919"/>
+    <mergeCell ref="Q920:Q921"/>
+    <mergeCell ref="Q922:Q923"/>
+    <mergeCell ref="Q924:Q925"/>
+    <mergeCell ref="Q926:Q927"/>
+    <mergeCell ref="Q928:Q929"/>
+    <mergeCell ref="Q930:Q931"/>
+    <mergeCell ref="Q932:Q933"/>
+    <mergeCell ref="Q934:Q935"/>
+    <mergeCell ref="Q936:Q937"/>
+    <mergeCell ref="Q938:Q939"/>
+    <mergeCell ref="Q940:Q941"/>
+    <mergeCell ref="Q942:Q943"/>
+    <mergeCell ref="Q944:Q945"/>
+    <mergeCell ref="Q946:Q947"/>
+    <mergeCell ref="Q948:Q949"/>
+    <mergeCell ref="Q950:Q951"/>
+    <mergeCell ref="Q952:Q953"/>
+    <mergeCell ref="Q954:Q955"/>
+    <mergeCell ref="Q956:Q957"/>
+    <mergeCell ref="Q958:Q959"/>
+    <mergeCell ref="Q960:Q961"/>
+    <mergeCell ref="Q962:Q963"/>
+    <mergeCell ref="Q964:Q965"/>
+    <mergeCell ref="Q966:Q967"/>
+    <mergeCell ref="Q968:Q969"/>
+    <mergeCell ref="Q970:Q971"/>
+    <mergeCell ref="Q972:Q973"/>
+    <mergeCell ref="Q974:Q975"/>
+    <mergeCell ref="Q976:Q977"/>
+    <mergeCell ref="Q978:Q979"/>
+    <mergeCell ref="Q980:Q981"/>
+    <mergeCell ref="Q982:Q983"/>
+    <mergeCell ref="Q984:Q985"/>
+    <mergeCell ref="Q986:Q987"/>
+    <mergeCell ref="Q988:Q989"/>
+    <mergeCell ref="Q990:Q991"/>
+    <mergeCell ref="Q992:Q993"/>
+    <mergeCell ref="Q994:Q995"/>
+    <mergeCell ref="Q996:Q997"/>
+    <mergeCell ref="Q998:Q999"/>
+    <mergeCell ref="Q1000:Q1001"/>
+    <mergeCell ref="Q1002:Q1003"/>
+    <mergeCell ref="Q1004:Q1005"/>
+    <mergeCell ref="Q1006:Q1007"/>
+    <mergeCell ref="Q1008:Q1009"/>
+    <mergeCell ref="Q1010:Q1011"/>
+    <mergeCell ref="Q1012:Q1013"/>
+    <mergeCell ref="Q1014:Q1015"/>
+    <mergeCell ref="Q1016:Q1017"/>
+    <mergeCell ref="Q1018:Q1019"/>
+    <mergeCell ref="Q1020:Q1021"/>
+    <mergeCell ref="Q1022:Q1023"/>
+    <mergeCell ref="Q1024:Q1025"/>
+    <mergeCell ref="Q1026:Q1027"/>
+    <mergeCell ref="Q1028:Q1029"/>
+    <mergeCell ref="Q1030:Q1031"/>
+    <mergeCell ref="Q1032:Q1033"/>
+    <mergeCell ref="Q1034:Q1035"/>
+    <mergeCell ref="Q1036:Q1037"/>
+    <mergeCell ref="Q1038:Q1039"/>
+    <mergeCell ref="Q1040:Q1041"/>
+    <mergeCell ref="Q1042:Q1043"/>
+    <mergeCell ref="Q1044:Q1045"/>
+    <mergeCell ref="Q1046:Q1047"/>
+    <mergeCell ref="Q1048:Q1049"/>
+    <mergeCell ref="Q1050:Q1051"/>
+    <mergeCell ref="Q1052:Q1053"/>
+    <mergeCell ref="Q1054:Q1055"/>
+    <mergeCell ref="Q1056:Q1057"/>
+    <mergeCell ref="Q1058:Q1059"/>
+    <mergeCell ref="Q1060:Q1061"/>
+    <mergeCell ref="Q1062:Q1063"/>
+    <mergeCell ref="Q1064:Q1065"/>
+    <mergeCell ref="Q1084:Q1085"/>
+    <mergeCell ref="Q1086:Q1087"/>
+    <mergeCell ref="Q1088:Q1089"/>
+    <mergeCell ref="Q1090:Q1091"/>
+    <mergeCell ref="Q1066:Q1067"/>
+    <mergeCell ref="Q1068:Q1069"/>
+    <mergeCell ref="Q1070:Q1071"/>
+    <mergeCell ref="Q1072:Q1073"/>
+    <mergeCell ref="Q1074:Q1075"/>
+    <mergeCell ref="Q1076:Q1077"/>
+    <mergeCell ref="Q1078:Q1079"/>
+    <mergeCell ref="Q1080:Q1081"/>
+    <mergeCell ref="Q1082:Q1083"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
